--- a/outputs/ML_Results/dist_commute/Nantes.xlsx
+++ b/outputs/ML_Results/dist_commute/Nantes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ08431559" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ08806761" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ09191493" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ09615887" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ09986843" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ10359309" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ10758111" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ11160101" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ11657974" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ13373653" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ13733193" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ14117534" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ14501596" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ14872535" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ15264034" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ15693625" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ16087836" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ16480263" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5359.658241603979</v>
+        <v>5357.913741142527</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003279925626602829</v>
+        <v>0.00330007597056991</v>
       </c>
     </row>
     <row r="3">
@@ -479,205 +479,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-300.9053381827187</v>
+        <v>-98.05502013898717</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8203863449559077</v>
+        <v>0.9408518503187121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.0518759293855</v>
+        <v>562.2542374481109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8535708474447754</v>
+        <v>0.6702151567533134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>562.0398753809316</v>
+        <v>329.122650083877</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6702338290944365</v>
+        <v>0.8491298620191263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325.3067448095521</v>
+        <v>149.9061335137289</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8508111858889031</v>
+        <v>0.03772388906563126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.1123248456219</v>
+        <v>-1067.9874806148</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03496045650462473</v>
+        <v>5.37368738866443e-09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1075.394451437642</v>
+        <v>-12.61553630676458</v>
       </c>
       <c r="C8" t="n">
-        <v>4.201825253113343e-09</v>
+        <v>0.1173201961458712</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-12.07282977029165</v>
+        <v>339.505791362836</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1340479394747807</v>
+        <v>6.977244877062898e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>336.4370576208286</v>
+        <v>655.3951604169366</v>
       </c>
       <c r="C10" t="n">
-        <v>8.088831345014624e-05</v>
+        <v>3.582104780537302e-25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>654.8537946377025</v>
+        <v>0.02372432086396063</v>
       </c>
       <c r="C11" t="n">
-        <v>3.785722198863712e-25</v>
+        <v>0.7421670481084119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02367255753265516</v>
+        <v>-6.901179003586382e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7426299599183213</v>
+        <v>0.3586708915020231</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.108406012120729e-05</v>
+        <v>-1.49314677547569</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3443186058425136</v>
+        <v>0.872631160832946</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.634529682495288</v>
+        <v>2.438766140861883</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8606488918987309</v>
+        <v>0.6912550162858597</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.588384422140907</v>
+        <v>1645.594295180393</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6733032663253947</v>
+        <v>0.3015113127452929</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1658.522399508167</v>
+        <v>-614.3241381443794</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2975790990086687</v>
+        <v>0.4326965684231089</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-620.0421486742988</v>
+        <v>-528.1271235763269</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4282811104104702</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-535.5481905281699</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3525419535995653</v>
+        <v>0.3593967633620514</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6481.908597684624</v>
+        <v>6483.600607110134</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003838272957219201</v>
+        <v>0.0003839712140133067</v>
       </c>
     </row>
     <row r="3">
@@ -736,205 +723,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-381.7049998604206</v>
+        <v>-194.5504672874745</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7732020517785818</v>
+        <v>0.8829157923159859</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.4609270802162</v>
+        <v>530.4085483928365</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9113569079553948</v>
+        <v>0.6878147688790137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>529.1898185696459</v>
+        <v>1373.84781581478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6884090982726678</v>
+        <v>0.4200191560373058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1371.256165979272</v>
+        <v>25.04317409212791</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4207623225455156</v>
+        <v>0.7258552288385745</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.5314168614963</v>
+        <v>-1056.431671564157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.699847553921756</v>
+        <v>7.695951967019797e-09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1062.763472565731</v>
+        <v>-19.89564708221243</v>
       </c>
       <c r="C8" t="n">
-        <v>6.242976376673082e-09</v>
+        <v>0.01257711459081078</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-19.49164425640262</v>
+        <v>327.2671043203966</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01449819472937559</v>
+        <v>0.0001644169626160139</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>324.5366258431203</v>
+        <v>682.2769928636284</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001859548111575922</v>
+        <v>9.114360911240113e-27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>682.917655825999</v>
+        <v>0.06985812747343724</v>
       </c>
       <c r="C11" t="n">
-        <v>7.936486081433816e-27</v>
+        <v>0.3273894675772752</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07004768591603168</v>
+        <v>-9.461417511283011e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3259393648507705</v>
+        <v>0.2082570520568074</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-9.694792878232894e-05</v>
+        <v>-5.41484372283892</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1971906085953898</v>
+        <v>0.5625569413121019</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.381532257349514</v>
+        <v>0.05545311106185036</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5648510878531322</v>
+        <v>0.9926377052715365</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1312810632300039</v>
+        <v>1702.428571217471</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9825668268052479</v>
+        <v>0.2815250966380198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1706.514631133581</v>
+        <v>-1164.594187823741</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2802334549104734</v>
+        <v>0.1387056174090291</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1179.816636671952</v>
+        <v>-691.3990967322347</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1335294010346785</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-695.3090413892703</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.218312082354121</v>
+        <v>0.2210418884329887</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3160.835829355991</v>
+        <v>3131.929670538407</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0965422414611713</v>
+        <v>0.09979066762550801</v>
       </c>
     </row>
     <row r="3">
@@ -993,205 +967,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1106.711168344305</v>
+        <v>1339.927048078588</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4268878007567327</v>
+        <v>0.3350217669323113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1757.840985042295</v>
+        <v>2247.086492424212</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2096620329435556</v>
+        <v>0.1056695050017773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2247.396499055649</v>
+        <v>2564.983848412352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1054463072595811</v>
+        <v>0.1494196702857854</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2561.540561068914</v>
+        <v>77.91658380413725</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1497619669359202</v>
+        <v>0.2697673944164289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.96414707296768</v>
+        <v>-925.1588185761306</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2571834007776317</v>
+        <v>3.707937133864372e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-932.8113182615987</v>
+        <v>-8.90247931783075</v>
       </c>
       <c r="C8" t="n">
-        <v>2.944159183737354e-07</v>
+        <v>0.2682337743509061</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.113719438700539</v>
+        <v>377.1635881378601</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3131487662600482</v>
+        <v>9.207006154521908e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>374.4975889587622</v>
+        <v>657.0053307193388</v>
       </c>
       <c r="C10" t="n">
-        <v>1.055294875552815e-05</v>
+        <v>8.888898753619261e-25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>656.2463840569626</v>
+        <v>-0.02025908871554696</v>
       </c>
       <c r="C11" t="n">
-        <v>9.536419383297351e-25</v>
+        <v>0.7779339235788193</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02026993052927735</v>
+        <v>-6.571608566016096e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7777094223095269</v>
+        <v>0.3793798034443711</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.93328472576059e-05</v>
+        <v>1.714762973905911</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3535777188076268</v>
+        <v>0.8553806003841233</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.457868501365164</v>
+        <v>2.839902435467279</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8768056563616626</v>
+        <v>0.6418970442261132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.675729476848406</v>
+        <v>2252.586575989358</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6611293113185635</v>
+        <v>0.1560422632403227</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2279.26318623029</v>
+        <v>64.33843000733947</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1510062356947737</v>
+        <v>0.9343085230814521</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>45.70648751713068</v>
+        <v>-700.3499067230932</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9532852199495125</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-688.8857198640895</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2255225130362647</v>
+        <v>0.2181105061131029</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5033.397504677585</v>
+        <v>5049.842865676887</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005531725175111237</v>
+        <v>0.005398081063856785</v>
       </c>
     </row>
     <row r="3">
@@ -1250,205 +1211,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-275.6674337211533</v>
+        <v>-56.87330965954857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8339080310570224</v>
+        <v>0.9653986329919687</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>327.9358600084821</v>
+        <v>708.3103548080035</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8042615776726292</v>
+        <v>0.5886113084982707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>705.4757665597709</v>
+        <v>723.2415212222872</v>
       </c>
       <c r="C5" t="n">
-        <v>0.589952358932792</v>
+        <v>0.6646255997294701</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722.0647499337862</v>
+        <v>81.80251315334405</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6650094902926443</v>
+        <v>0.2497946877661375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.6066197449444</v>
+        <v>-1126.700073726198</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2507370805452606</v>
+        <v>5.615185845723401e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1132.452009414392</v>
+        <v>-16.12832813713764</v>
       </c>
       <c r="C8" t="n">
-        <v>4.540692009285814e-10</v>
+        <v>0.04240960670130389</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-15.48735743893586</v>
+        <v>414.417052998712</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05138788422725121</v>
+        <v>8.995355881157038e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>411.1140478429125</v>
+        <v>697.4896373378724</v>
       </c>
       <c r="C10" t="n">
-        <v>1.090671281072791e-06</v>
+        <v>5.060035042861711e-28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>699.7135642873982</v>
+        <v>0.05091350682990457</v>
       </c>
       <c r="C11" t="n">
-        <v>3.343445319602429e-28</v>
+        <v>0.4751793190285557</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05169289659220411</v>
+        <v>-0.0001097291281294939</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4682714059107924</v>
+        <v>0.1422100210271723</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.000112007352494821</v>
+        <v>2.262425935046489</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1339959643409904</v>
+        <v>0.8063216049627315</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.429241837790777</v>
+        <v>2.280455905670293</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7922813209757398</v>
+        <v>0.7054516083724285</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.349404517973088</v>
+        <v>2287.14925336881</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6968672961017934</v>
+        <v>0.1467988785920732</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2277.939999619935</v>
+        <v>-583.3992258091812</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1482681263479233</v>
+        <v>0.4530066840089666</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-614.5763539583229</v>
+        <v>-747.8600937269647</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4291243676536458</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-737.1885976393954</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1914873973959106</v>
+        <v>0.1853011443994275</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4044.976462044875</v>
+        <v>4016.296451219485</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02916471963492288</v>
+        <v>0.03046481047035288</v>
       </c>
     </row>
     <row r="3">
@@ -1507,205 +1455,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-453.1744790426822</v>
+        <v>-165.2201511072126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.737319956285807</v>
+        <v>0.9024846809257741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>364.026591953201</v>
+        <v>624.6232583243018</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7889675571095867</v>
+        <v>0.6428408703318806</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>627.7252937240667</v>
+        <v>918.308442948568</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6409088900232947</v>
+        <v>0.5964985601727439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>919.8688787666824</v>
+        <v>23.05622088876283</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5955631239613755</v>
+        <v>0.7478446946333915</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.13443014961022</v>
+        <v>-1008.490522982821</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7362699571243104</v>
+        <v>2.947130127771282e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1026.785668054418</v>
+        <v>-9.966521936778687</v>
       </c>
       <c r="C8" t="n">
-        <v>1.642221243491556e-08</v>
+        <v>0.2094848515577029</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.972226278184221</v>
+        <v>364.7545089087768</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2586159817012991</v>
+        <v>2.074255569988031e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.0066108804048</v>
+        <v>733.8873820576864</v>
       </c>
       <c r="C10" t="n">
-        <v>2.357259540131827e-05</v>
+        <v>1.284547949261366e-30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>735.4300568173154</v>
+        <v>0.06398060816256412</v>
       </c>
       <c r="C11" t="n">
-        <v>8.760417272519609e-31</v>
+        <v>0.3715232300518704</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06676472133579463</v>
+        <v>-0.0001056144708939877</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3507118515081536</v>
+        <v>0.1578844122382562</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001112170890729323</v>
+        <v>5.108935637194383</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1367865828847342</v>
+        <v>0.5841056644059562</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.51016681810926</v>
+        <v>4.160799783756007</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6287185229208401</v>
+        <v>0.5053444742727453</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.932084793572755</v>
+        <v>3250.884191731585</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5287125114444433</v>
+        <v>0.04241897172721692</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3354.728251603276</v>
+        <v>-491.8305573272149</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03613455207480125</v>
+        <v>0.5246686444398002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-496.2780852437843</v>
+        <v>-472.8465628518136</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5205740626517628</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-464.0277933553032</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.412268870278075</v>
+        <v>0.4038342199611262</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6674.275762431084</v>
+        <v>6682.61467144888</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008880509306703289</v>
+        <v>0.0008812203086270983</v>
       </c>
     </row>
     <row r="3">
@@ -1764,205 +1699,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1773.196937600569</v>
+        <v>-1523.437099478443</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2576777709506375</v>
+        <v>0.3300834157428884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1063.862494117265</v>
+        <v>-774.2162252748601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4991920697365509</v>
+        <v>0.6203446231094949</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-772.8402435607801</v>
+        <v>-1486.194626320177</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6207559318294289</v>
+        <v>0.4357162154715333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1487.430389566227</v>
+        <v>54.13654195444866</v>
       </c>
       <c r="C6" t="n">
-        <v>0.435058365765336</v>
+        <v>0.447901264353643</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.15573675542006</v>
+        <v>-875.9006691796226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.414766355082906</v>
+        <v>1.36887106313893e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-875.4207226265968</v>
+        <v>-22.75952544698997</v>
       </c>
       <c r="C8" t="n">
-        <v>1.367122495112957e-06</v>
+        <v>0.004565558232751387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-22.19528646015854</v>
+        <v>293.9140219083217</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005666625081103939</v>
+        <v>0.0005793599224474351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>287.7914384069504</v>
+        <v>699.3455405904001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000751388419815675</v>
+        <v>3.754884786903408e-28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>701.5630367455647</v>
+        <v>0.05495936266656274</v>
       </c>
       <c r="C11" t="n">
-        <v>2.412859787425828e-28</v>
+        <v>0.4458738583727233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05491000996909468</v>
+        <v>-0.0001225374923353686</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4460087450636749</v>
+        <v>0.102315572388274</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001262402102146825</v>
+        <v>-0.05574470668355236</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09222925961635912</v>
+        <v>0.9952223915439831</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0213610421810273</v>
+        <v>3.829383825126769</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9981681475361335</v>
+        <v>0.542682805902053</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.707682408406101</v>
+        <v>3211.116035186539</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5553572643791898</v>
+        <v>0.04480764594558791</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3239.440322280217</v>
+        <v>-476.1915592312484</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04283544286055448</v>
+        <v>0.539041175679015</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-497.1735388275125</v>
+        <v>-930.3106715475679</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5210840811577389</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-921.5271179784748</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1001628072893753</v>
+        <v>0.09716304157900062</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5031.043432734026</v>
+        <v>5046.940955057888</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00818047341019555</v>
+        <v>0.008024418149083582</v>
       </c>
     </row>
     <row r="3">
@@ -2021,205 +1943,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-167.7931973884949</v>
+        <v>96.63488175972225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9080975235885971</v>
+        <v>0.9469024350144049</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>575.1293487078983</v>
+        <v>803.3754679571946</v>
       </c>
       <c r="C4" t="n">
-        <v>0.693931394053712</v>
+        <v>0.5795504357457057</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.4159189148127</v>
+        <v>753.2217471763606</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5797386352847456</v>
+        <v>0.6736712766648504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>744.8238573012218</v>
+        <v>49.64202685689369</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6768904594443501</v>
+        <v>0.4767471133668593</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.41010176125524</v>
+        <v>-1166.805123571251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4187693547696646</v>
+        <v>9.927021562019853e-11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1172.840840240417</v>
+        <v>-17.33510645972485</v>
       </c>
       <c r="C8" t="n">
-        <v>7.751990820291414e-11</v>
+        <v>0.02792053826246145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-16.74271684868476</v>
+        <v>410.4555072690792</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03367629603216259</v>
+        <v>1.003227168465907e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.1658373003171</v>
+        <v>690.3094840774578</v>
       </c>
       <c r="C10" t="n">
-        <v>1.066290245105828e-06</v>
+        <v>2.219420153317806e-28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>691.6097600607354</v>
+        <v>0.07848800506328998</v>
       </c>
       <c r="C11" t="n">
-        <v>1.628383513564419e-28</v>
+        <v>0.2689930836867393</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07920705662505872</v>
+        <v>-0.0001357790842354316</v>
       </c>
       <c r="C12" t="n">
-        <v>0.264301960500591</v>
+        <v>0.06606842600581057</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001380566138691404</v>
+        <v>2.457423497174517</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06149048354611061</v>
+        <v>0.7885017250437468</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.47890490229732</v>
+        <v>1.388330003217871</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7865520431833479</v>
+        <v>0.8185166392729836</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.431135001975676</v>
+        <v>2308.047603962109</v>
       </c>
       <c r="C15" t="n">
-        <v>0.812895603916086</v>
+        <v>0.1356547322221014</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2321.48298274645</v>
+        <v>-949.2801967114488</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1331245910527242</v>
+        <v>0.21866234983814</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-997.4010318426626</v>
+        <v>-348.4091363019122</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1960202670029971</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-351.9500921373216</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5323662112158329</v>
+        <v>0.5367821042738636</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4366.473497916536</v>
+        <v>4380.330930084848</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01815624242211847</v>
+        <v>0.01781467041481376</v>
       </c>
     </row>
     <row r="3">
@@ -2278,205 +2187,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-346.7332892869848</v>
+        <v>-184.5502364932664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7944469801788316</v>
+        <v>0.8894300600915713</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.6281498907524</v>
+        <v>591.1303589075167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9229793023441932</v>
+        <v>0.6558408737088393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>593.9253675267047</v>
+        <v>1285.535724588534</v>
       </c>
       <c r="C5" t="n">
-        <v>0.654253267496298</v>
+        <v>0.4670763271453701</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1281.36006170784</v>
+        <v>77.69961987950761</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4684335857225543</v>
+        <v>0.280727337461658</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.04202390553452</v>
+        <v>-913.7599966284824</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2549384783298008</v>
+        <v>6.179370788736736e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-914.8733113715558</v>
+        <v>-15.4308831377388</v>
       </c>
       <c r="C8" t="n">
-        <v>5.958222136697204e-07</v>
+        <v>0.05514313338931821</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-14.93849482659721</v>
+        <v>400.2618080195548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0634988528606848</v>
+        <v>3.137813121056652e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>398.8261415974913</v>
+        <v>671.107203845211</v>
       </c>
       <c r="C10" t="n">
-        <v>3.390583557521577e-06</v>
+        <v>8.580465024578909e-26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>671.097172049597</v>
+        <v>0.01160823113727492</v>
       </c>
       <c r="C11" t="n">
-        <v>8.404677980894461e-26</v>
+        <v>0.8732833839133358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01255147575750881</v>
+        <v>-7.317129798322236e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8630610921611604</v>
+        <v>0.3343432635373782</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.638241900191204e-05</v>
+        <v>3.841179243357181</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3136280675109331</v>
+        <v>0.683424918773484</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.755175931797816</v>
+        <v>10.15068424362245</v>
       </c>
       <c r="C14" t="n">
-        <v>0.690085255062973</v>
+        <v>0.1044572817122146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.12775792104917</v>
+        <v>508.86764808586</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1051720579385742</v>
+        <v>0.7497883978689404</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.91359694342</v>
+        <v>-616.4470225471537</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7336330743188988</v>
+        <v>0.4349700279643883</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-628.5664387589338</v>
+        <v>-244.5076887594976</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4259206096023781</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-244.734974820425</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.6719476661301096</v>
+        <v>0.672297832504656</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5047.543849324949</v>
+        <v>5058.495410399464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01557756299402873</v>
+        <v>0.0154097843559298</v>
       </c>
     </row>
     <row r="3">
@@ -2535,205 +2431,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1065.831592817858</v>
+        <v>-816.4459749958199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5181947398620426</v>
+        <v>0.6201027492134057</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-392.096294992343</v>
+        <v>-181.0721512628693</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8128263524626229</v>
+        <v>0.9124221522325613</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-176.2650918060431</v>
+        <v>-188.2795848846188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9146921422586319</v>
+        <v>0.9267855793524307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-190.4929006882157</v>
+        <v>74.57913075471927</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9258873128981933</v>
+        <v>0.3022878602775028</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.3326581668999</v>
+        <v>-891.4904502163372</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2971727023106494</v>
+        <v>1.246472200220972e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-894.5685727889826</v>
+        <v>-17.73735814710085</v>
       </c>
       <c r="C8" t="n">
-        <v>1.131313049698715e-06</v>
+        <v>0.0293753488331671</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-17.02216729287599</v>
+        <v>429.7721407874936</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03659047558811348</v>
+        <v>5.300451643524259e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>427.3206978676469</v>
+        <v>707.0857948051369</v>
       </c>
       <c r="C10" t="n">
-        <v>6.072061002797917e-07</v>
+        <v>2.059342611515054e-28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>708.3700285860828</v>
+        <v>0.02708622181827734</v>
       </c>
       <c r="C11" t="n">
-        <v>1.553065586197322e-28</v>
+        <v>0.710224384210111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02822424059411217</v>
+        <v>-7.73653847867559e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6984847130687351</v>
+        <v>0.3077691008865701</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.208883181760051e-05</v>
+        <v>2.32432404245262</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2790817084394409</v>
+        <v>0.8034060738312518</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.190725308626799</v>
+        <v>4.197594920472568</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8143983458346249</v>
+        <v>0.5030370738091774</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.220728368966766</v>
+        <v>1893.206174255672</v>
       </c>
       <c r="C15" t="n">
-        <v>0.500455038953907</v>
+        <v>0.2348773482408594</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1937.222310380402</v>
+        <v>-376.5199961314333</v>
       </c>
       <c r="C16" t="n">
-        <v>0.223955504787843</v>
+        <v>0.6358001137787859</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-393.4126671421427</v>
+        <v>72.2504750515476</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6205478879655724</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>70.53120878369191</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9018511760694579</v>
+        <v>0.899525392206561</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Nantes.xlsx
+++ b/outputs/ML_Results/dist_commute/Nantes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ13373653" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ13733193" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ14117534" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ14501596" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ14872535" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ15264034" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ15693625" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ16087836" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ16480263" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ30489040" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ30803524" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ31135169" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ31446893" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ31779751" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ32105458" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ32420002" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ32730071" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ33037145" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5357.913741142527</v>
+        <v>6204.247187821606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00330007597056991</v>
+        <v>0.001590791954976808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-98.05502013898717</v>
+        <v>-2769.925381608874</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9408518503187121</v>
+        <v>0.1404117420046011</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>562.2542374481109</v>
+        <v>-2200.897925316187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6702151567533134</v>
+        <v>0.1626151273385582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>329.122650083877</v>
+        <v>-1536.893293220708</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8491298620191263</v>
+        <v>0.3290382873086409</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149.9061335137289</v>
+        <v>-13.82187897330442</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03772388906563126</v>
+        <v>0.9669362711664762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1067.9874806148</v>
+        <v>238.5355148649587</v>
       </c>
       <c r="C7" t="n">
-        <v>5.37368738866443e-09</v>
+        <v>0.2212857571638672</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.61553630676458</v>
+        <v>158.5462184410171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1173201961458712</v>
+        <v>0.02821805969828602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>339.505791362836</v>
+        <v>-1064.440290285151</v>
       </c>
       <c r="C9" t="n">
-        <v>6.977244877062898e-05</v>
+        <v>6.125813458284932e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>655.3951604169366</v>
+        <v>-12.15409474971718</v>
       </c>
       <c r="C10" t="n">
-        <v>3.582104780537302e-25</v>
+        <v>0.1315437049892932</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02372432086396063</v>
+        <v>341.3625999576416</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7421670481084119</v>
+        <v>6.345326515243543e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-6.901179003586382e-05</v>
+        <v>655.2640087584691</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3586708915020231</v>
+        <v>3.592921510002607e-25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.49314677547569</v>
+        <v>0.02560418577411537</v>
       </c>
       <c r="C13" t="n">
-        <v>0.872631160832946</v>
+        <v>0.7225421350065928</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.438766140861883</v>
+        <v>-6.955100358938852e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6912550162858597</v>
+        <v>0.3549326286622995</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1645.594295180393</v>
+        <v>-1.845655156087775</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3015113127452929</v>
+        <v>0.8429661942455484</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-614.3241381443794</v>
+        <v>2.326000506873874</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4326965684231089</v>
+        <v>0.7047746688635292</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1863.805690017006</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.243473666208033</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-617.6216071590906</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4302960733214959</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-528.1271235763269</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3593967633620514</v>
+      <c r="B19" t="n">
+        <v>-524.3461020582035</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3629680582888235</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +736,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6483.600607110134</v>
+        <v>9100.777874549127</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003839712140133067</v>
+        <v>1.17021248047349e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-194.5504672874745</v>
+        <v>-4097.336792682925</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8829157923159859</v>
+        <v>0.03611821832302247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>530.4085483928365</v>
+        <v>-4053.563285288528</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6878147688790137</v>
+        <v>0.01721133398840942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1373.84781581478</v>
+        <v>-3328.26445353266</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4200191560373058</v>
+        <v>0.05022998312981488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.04317409212791</v>
+        <v>-343.3091668250436</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7258552288385745</v>
+        <v>0.3114586294840599</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1056.431671564157</v>
+        <v>257.4838909445012</v>
       </c>
       <c r="C7" t="n">
-        <v>7.695951967019797e-09</v>
+        <v>0.1863816215717783</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19.89564708221243</v>
+        <v>37.22373415368573</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01257711459081078</v>
+        <v>0.6025626349641715</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>327.2671043203966</v>
+        <v>-1055.380283394821</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001644169626160139</v>
+        <v>7.981458329218753e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>682.2769928636284</v>
+        <v>-18.93147295011008</v>
       </c>
       <c r="C10" t="n">
-        <v>9.114360911240113e-27</v>
+        <v>0.01766751387110824</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06985812747343724</v>
+        <v>333.7240455769515</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3273894675772752</v>
+        <v>0.0001215906591428576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-9.461417511283011e-05</v>
+        <v>681.7412966261111</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2082570520568074</v>
+        <v>1.00277868486777e-26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.41484372283892</v>
+        <v>0.07106968104059147</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5625569413121019</v>
+        <v>0.3189674034688582</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05545311106185036</v>
+        <v>-9.262062769122218e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9926377052715365</v>
+        <v>0.2178773303737004</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1702.428571217471</v>
+        <v>-5.813190992623287</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2815250966380198</v>
+        <v>0.534018957031922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1164.594187823741</v>
+        <v>-0.2617388640084872</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1387056174090291</v>
+        <v>0.965243432923634</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1916.277796912371</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2262065740255612</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1173.889674147999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1352781746818891</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-691.3990967322347</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2210418884329887</v>
+      <c r="B19" t="n">
+        <v>-708.9502654292413</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2096590715039026</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1006,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3131.929670538407</v>
+        <v>6049.529474878697</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09979066762550801</v>
+        <v>0.003488258232190675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1339.927048078588</v>
+        <v>-3237.54336574901</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3350217669323113</v>
+        <v>0.1015623586969471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2247.086492424212</v>
+        <v>-2547.232426329147</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1056695050017773</v>
+        <v>0.1329362837613871</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2564.983848412352</v>
+        <v>-1640.82188667922</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1494196702857854</v>
+        <v>0.3326866764178178</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.91658380413725</v>
+        <v>-109.6053588976501</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2697673944164289</v>
+        <v>0.7426687460002115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-925.1588185761306</v>
+        <v>63.43361748385132</v>
       </c>
       <c r="C7" t="n">
-        <v>3.707937133864372e-07</v>
+        <v>0.7440796989670335</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.90247931783075</v>
+        <v>87.31349410774403</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2682337743509061</v>
+        <v>0.2172155796069666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>377.1635881378601</v>
+        <v>-919.3009744494688</v>
       </c>
       <c r="C9" t="n">
-        <v>9.207006154521908e-06</v>
+        <v>4.54513255821906e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>657.0053307193388</v>
+        <v>-8.831797839924205</v>
       </c>
       <c r="C10" t="n">
-        <v>8.888898753619261e-25</v>
+        <v>0.2723909472469691</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02025908871554696</v>
+        <v>378.3187499341616</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7779339235788193</v>
+        <v>8.772265030090622e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-6.571608566016096e-05</v>
+        <v>655.8174651771653</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3793798034443711</v>
+        <v>1.089589689471206e-24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.714762973905911</v>
+        <v>-0.02047100429012485</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8553806003841233</v>
+        <v>0.7759004281980657</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.839902435467279</v>
+        <v>-6.488537457517388e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6418970442261132</v>
+        <v>0.3857011753593994</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2252.586575989358</v>
+        <v>1.41543916584973</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1560422632403227</v>
+        <v>0.8805050965135744</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.33843000733947</v>
+        <v>2.765397763029837</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9343085230814521</v>
+        <v>0.6508623906341727</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2355.150727536176</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1392452534228358</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>59.92338151546863</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9388149619885984</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-700.3499067230932</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2181105061131029</v>
+      <c r="B19" t="n">
+        <v>-695.5330743054835</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2215294720110394</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1276,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5049.842865676887</v>
+        <v>5875.360901881713</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005398081063856785</v>
+        <v>0.002614809336604192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-56.87330965954857</v>
+        <v>-2111.02125478775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9653986329919687</v>
+        <v>0.2494284055178289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>708.3103548080035</v>
+        <v>-2017.818069181892</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5886113084982707</v>
+        <v>0.1969151553802025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>723.2415212222872</v>
+        <v>-1253.065145208039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6646255997294701</v>
+        <v>0.4224666125034148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81.80251315334405</v>
+        <v>-38.66253060067908</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2497946877661375</v>
+        <v>0.9091190841567568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1126.700073726198</v>
+        <v>-27.38694212355972</v>
       </c>
       <c r="C7" t="n">
-        <v>5.615185845723401e-10</v>
+        <v>0.8868142961105202</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.12832813713764</v>
+        <v>87.03282397195674</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04240960670130389</v>
+        <v>0.221684878029311</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>414.417052998712</v>
+        <v>-1118.376541185059</v>
       </c>
       <c r="C9" t="n">
-        <v>8.995355881157038e-07</v>
+        <v>7.856622048304037e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>697.4896373378724</v>
+        <v>-16.1453566476239</v>
       </c>
       <c r="C10" t="n">
-        <v>5.060035042861711e-28</v>
+        <v>0.04233510414492259</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05091350682990457</v>
+        <v>414.9064322495874</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4751793190285557</v>
+        <v>8.821567254474685e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0001097291281294939</v>
+        <v>697.7946161730282</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1422100210271723</v>
+        <v>4.906775766412481e-28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.262425935046489</v>
+        <v>0.0515431974916128</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8063216049627315</v>
+        <v>0.4698400516810086</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.280455905670293</v>
+        <v>-0.0001105849052504303</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7054516083724285</v>
+        <v>0.1391897842408287</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2287.14925336881</v>
+        <v>2.061313572148039</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1467988785920732</v>
+        <v>0.8232878914726708</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-583.3992258091812</v>
+        <v>2.258687056913627</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4530066840089666</v>
+        <v>0.7082332417885122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2387.729715534538</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1306424068250676</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-570.1209334197471</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4635287269937148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-747.8600937269647</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1853011443994275</v>
+      <c r="B19" t="n">
+        <v>-743.8957184223777</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1878623658231935</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1546,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4016.296451219485</v>
+        <v>4977.073764075941</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03046481047035288</v>
+        <v>0.01171549869016094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-165.2201511072126</v>
+        <v>-2310.837621941372</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9024846809257741</v>
+        <v>0.2158610487611572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6232583243018</v>
+        <v>-2318.807868985873</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6428408703318806</v>
+        <v>0.1392902613477401</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>918.308442948568</v>
+        <v>-1531.285115266004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5964985601727439</v>
+        <v>0.3284128457568359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.05622088876283</v>
+        <v>-5.879631110842638</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7478446946333915</v>
+        <v>0.9858339443499317</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1008.490522982821</v>
+        <v>242.4110374751303</v>
       </c>
       <c r="C7" t="n">
-        <v>2.947130127771282e-08</v>
+        <v>0.211088537660678</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.966521936778687</v>
+        <v>31.77757663542911</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2094848515577029</v>
+        <v>0.6582356352780747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>364.7545089087768</v>
+        <v>-1004.741916839442</v>
       </c>
       <c r="C9" t="n">
-        <v>2.074255569988031e-05</v>
+        <v>3.358775112744407e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>733.8873820576864</v>
+        <v>-9.509240991424385</v>
       </c>
       <c r="C10" t="n">
-        <v>1.284547949261366e-30</v>
+        <v>0.2314686428013712</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06398060816256412</v>
+        <v>367.1574812383803</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3715232300518704</v>
+        <v>1.830449171539435e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0001056144708939877</v>
+        <v>733.529612781653</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1578844122382562</v>
+        <v>1.408300596959906e-30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.108935637194383</v>
+        <v>0.06471725447254442</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5841056644059562</v>
+        <v>0.3661487244617097</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.160799783756007</v>
+        <v>-0.000104754400263945</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5053444742727453</v>
+        <v>0.161329931181564</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3250.884191731585</v>
+        <v>4.908455683173452</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04241897172721692</v>
+        <v>0.5989723665448609</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-491.8305573272149</v>
+        <v>3.957029683787932</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5246686444398002</v>
+        <v>0.5264566134573377</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3418.317779137793</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.03320566605371421</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-488.0107325230388</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5278303197884726</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-472.8465628518136</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4038342199611262</v>
+      <c r="B19" t="n">
+        <v>-469.3633719520899</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4074398076383037</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1816,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6682.61467144888</v>
+        <v>4772.535978039623</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008812203086270983</v>
+        <v>0.02493227770386823</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1523.437099478443</v>
+        <v>-164.6645514812915</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3300834157428884</v>
+        <v>0.9360393483074644</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-774.2162252748601</v>
+        <v>-621.2303173379078</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6203446231094949</v>
+        <v>0.7250299186034649</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1486.194626320177</v>
+        <v>131.0739914380184</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4357162154715333</v>
+        <v>0.9407819373876273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.13654195444866</v>
+        <v>-194.2993936116115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.447901264353643</v>
+        <v>0.5576989085081154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-875.9006691796226</v>
+        <v>199.0505857975747</v>
       </c>
       <c r="C7" t="n">
-        <v>1.36887106313893e-06</v>
+        <v>0.3043215596581855</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-22.75952544698997</v>
+        <v>55.59649158427699</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004565558232751387</v>
+        <v>0.4367574023745909</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>293.9140219083217</v>
+        <v>-881.2110748566922</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005793599224474351</v>
+        <v>1.199661073320916e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>699.3455405904001</v>
+        <v>-22.26865655164428</v>
       </c>
       <c r="C10" t="n">
-        <v>3.754884786903408e-28</v>
+        <v>0.005558143283307995</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05495936266656274</v>
+        <v>297.7386628348831</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4458738583727233</v>
+        <v>0.0004945365462192828</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0001225374923353686</v>
+        <v>699.6286778581</v>
       </c>
       <c r="C12" t="n">
-        <v>0.102315572388274</v>
+        <v>3.73312830289989e-28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05574470668355236</v>
+        <v>0.05467301721116277</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9952223915439831</v>
+        <v>0.4485957708660864</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.829383825126769</v>
+        <v>-0.0001208089277139124</v>
       </c>
       <c r="C14" t="n">
-        <v>0.542682805902053</v>
+        <v>0.107372574277725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3211.116035186539</v>
+        <v>0.1124344731135238</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04480764594558791</v>
+        <v>0.9903678477997546</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-476.1915592312484</v>
+        <v>3.651262199547522</v>
       </c>
       <c r="C16" t="n">
-        <v>0.539041175679015</v>
+        <v>0.5616842656431849</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3287.845334654646</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04043721620081738</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-485.6249587997902</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5311545275111784</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-930.3106715475679</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09716304157900062</v>
+      <c r="B19" t="n">
+        <v>-938.6658676072052</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.09441500659632694</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2086,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5046.940955057888</v>
+        <v>5380.58299687437</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008024418149083582</v>
+        <v>0.006525765097535129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.63488175972225</v>
+        <v>-1640.654259613247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9469024350144049</v>
+        <v>0.3875359805653936</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>803.3754679571946</v>
+        <v>-1566.371869634499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5795504357457057</v>
+        <v>0.3309430840112286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>753.2217471763606</v>
+        <v>-857.8653132889892</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6736712766648504</v>
+        <v>0.5940250246711036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.64202685689369</v>
+        <v>23.55567463939065</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4767471133668593</v>
+        <v>0.9437674156860668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1166.805123571251</v>
+        <v>193.1263014608128</v>
       </c>
       <c r="C7" t="n">
-        <v>9.927021562019853e-11</v>
+        <v>0.312996570541315</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.33510645972485</v>
+        <v>55.03144529919858</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02792053826246145</v>
+        <v>0.4309365196712447</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>410.4555072690792</v>
+        <v>-1165.865110909164</v>
       </c>
       <c r="C9" t="n">
-        <v>1.003227168465907e-06</v>
+        <v>1.08635716545038e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>690.3094840774578</v>
+        <v>-16.90769044584874</v>
       </c>
       <c r="C10" t="n">
-        <v>2.219420153317806e-28</v>
+        <v>0.0322450439445762</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07848800506328998</v>
+        <v>413.3776281652006</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2689930836867393</v>
+        <v>8.508413524169583e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0001357790842354316</v>
+        <v>691.0016166553287</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06606842600581057</v>
+        <v>1.969184432525501e-28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.457423497174517</v>
+        <v>0.07926691425015275</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7885017250437468</v>
+        <v>0.2643909594550447</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.388330003217871</v>
+        <v>-0.0001348142311693299</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8185166392729836</v>
+        <v>0.0680842458898939</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2308.047603962109</v>
+        <v>2.282584542854323</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1356547322221014</v>
+        <v>0.8032969941612533</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-949.2801967114488</v>
+        <v>1.249163673545464</v>
       </c>
       <c r="C16" t="n">
-        <v>0.21866234983814</v>
+        <v>0.8364778929085037</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2432.284128540057</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1165897893346248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-941.7614422389587</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2223622998296332</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-348.4091363019122</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5367821042738636</v>
+      <c r="B19" t="n">
+        <v>-340.4173981217348</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5462029433340128</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2356,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4380.330930084848</v>
+        <v>5298.045837966307</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01781467041481376</v>
+        <v>0.007738349326240089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-184.5502364932664</v>
+        <v>-1778.261355683136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8894300600915713</v>
+        <v>0.3503419010065471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.1303589075167</v>
+        <v>-2100.976622920002</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6558408737088393</v>
+        <v>0.1846371079616233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.535724588534</v>
+        <v>-1325.345592733969</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4670763271453701</v>
+        <v>0.4021060322869523</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.69961987950761</v>
+        <v>-223.4103907592228</v>
       </c>
       <c r="C6" t="n">
-        <v>0.280727337461658</v>
+        <v>0.5094354544624107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-913.7599966284824</v>
+        <v>145.6939478222177</v>
       </c>
       <c r="C7" t="n">
-        <v>6.179370788736736e-07</v>
+        <v>0.4565009871708787</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.4308831377388</v>
+        <v>84.68508962340746</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05514313338931821</v>
+        <v>0.2403969373585977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>400.2618080195548</v>
+        <v>-913.1176735465498</v>
       </c>
       <c r="C9" t="n">
-        <v>3.137813121056652e-06</v>
+        <v>6.506561127999711e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>671.107203845211</v>
+        <v>-14.88134733781389</v>
       </c>
       <c r="C10" t="n">
-        <v>8.580465024578909e-26</v>
+        <v>0.06476226084398801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01160823113727492</v>
+        <v>402.4017116375466</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8732833839133358</v>
+        <v>2.790556022915306e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-7.317129798322236e-05</v>
+        <v>670.4352938032823</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3343432635373782</v>
+        <v>9.957489565546095e-26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.841179243357181</v>
+        <v>0.01082714225019341</v>
       </c>
       <c r="C13" t="n">
-        <v>0.683424918773484</v>
+        <v>0.8818359808389913</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.15068424362245</v>
+        <v>-7.123425006552188e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1044572817122146</v>
+        <v>0.3476340999815383</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>508.86764808586</v>
+        <v>3.764355565617323</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7497883978689404</v>
+        <v>0.6894836282356098</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-616.4470225471537</v>
+        <v>9.889045248548403</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4349700279643883</v>
+        <v>0.1138971602816724</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>572.7680406458707</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7200852137332134</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-623.5399481719878</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4297713885940619</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-244.5076887594976</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.672297832504656</v>
+      <c r="B19" t="n">
+        <v>-251.1349259901023</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6641612878401804</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2626,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5058.495410399464</v>
+        <v>5353.854352309412</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0154097843559298</v>
+        <v>0.02641173352798643</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-816.4459749958199</v>
+        <v>-1892.768408404349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6201027492134057</v>
+        <v>0.4255592957700662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-181.0721512628693</v>
+        <v>-2183.044485419966</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9124221522325613</v>
+        <v>0.2970740110821912</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-188.2795848846188</v>
+        <v>-1544.220364558679</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9267855793524307</v>
+        <v>0.4605218442678245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.57913075471927</v>
+        <v>271.3000686105811</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3022878602775028</v>
+        <v>0.4268836330606567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-891.4904502163372</v>
+        <v>204.8412595097575</v>
       </c>
       <c r="C7" t="n">
-        <v>1.246472200220972e-06</v>
+        <v>0.2962056899432725</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.73735814710085</v>
+        <v>74.84957148837458</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0293753488331671</v>
+        <v>0.3004778516106229</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>429.7721407874936</v>
+        <v>-892.2681024080838</v>
       </c>
       <c r="C9" t="n">
-        <v>5.300451643524259e-07</v>
+        <v>1.244908689333211e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>707.0857948051369</v>
+        <v>-17.49810005502818</v>
       </c>
       <c r="C10" t="n">
-        <v>2.059342611515054e-28</v>
+        <v>0.03176298725856178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02708622181827734</v>
+        <v>431.7267117744242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.710224384210111</v>
+        <v>4.735918380538668e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-7.73653847867559e-05</v>
+        <v>708.8732094174238</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3077691008865701</v>
+        <v>1.571152451401147e-28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.32432404245262</v>
+        <v>0.03059851790854302</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8034060738312518</v>
+        <v>0.6748274391865088</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.197594920472568</v>
+        <v>-7.830184430398581e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5030370738091774</v>
+        <v>0.3020061413332983</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1893.206174255672</v>
+        <v>1.90154323311781</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2348773482408594</v>
+        <v>0.8386721639440953</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-376.5199961314333</v>
+        <v>4.051048842587731</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6358001137787859</v>
+        <v>0.5181246370171606</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2060.519856921351</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1977132780693769</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-352.3369848096501</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6577659793078718</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>72.2504750515476</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.899525392206561</v>
+      <c r="B19" t="n">
+        <v>88.27872277477343</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8774498202067758</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Nantes.xlsx
+++ b/outputs/ML_Results/dist_commute/Nantes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ30489040" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ30803524" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ31135169" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ31446893" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ31779751" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ32105458" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ32420002" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ32730071" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ33037145" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ31538385" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ31792159" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ32071479" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ32350249" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ32625549" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ32898141" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ33179412" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ33500342" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ33900235" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6204.247187821606</v>
+        <v>6034.329738730387</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001590791954976808</v>
+        <v>0.002033847996275638</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2769.925381608874</v>
+        <v>-2795.438860808449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1404117420046011</v>
+        <v>0.1367425888472357</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2200.897925316187</v>
+        <v>-2258.509880761469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1626151273385582</v>
+        <v>0.1515552451973355</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1536.893293220708</v>
+        <v>-1600.203155881567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3290382873086409</v>
+        <v>0.3090251430484663</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13.82187897330442</v>
+        <v>-4.107207084220818</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9669362711664762</v>
+        <v>0.9901672170004172</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>238.5355148649587</v>
+        <v>239.3821353268765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2212857571638672</v>
+        <v>0.2196362665347851</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.5462184410171</v>
+        <v>158.5632109599123</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02821805969828602</v>
+        <v>0.02819792771598132</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1064.440290285151</v>
+        <v>-1063.155916136795</v>
       </c>
       <c r="C9" t="n">
-        <v>6.125813458284932e-09</v>
+        <v>6.375644706446042e-09</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-12.15409474971718</v>
+        <v>-12.09160725450919</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1315437049892932</v>
+        <v>0.1335169214265667</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.3625999576416</v>
+        <v>352.0666015784151</v>
       </c>
       <c r="C11" t="n">
-        <v>6.345326515243543e-05</v>
+        <v>3.119109133035904e-05</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>655.2640087584691</v>
+        <v>670.2298801473326</v>
       </c>
       <c r="C12" t="n">
-        <v>3.592921510002607e-25</v>
+        <v>4.967479259354167e-28</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02560418577411537</v>
+        <v>0.005901881398159354</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7225421350065928</v>
+        <v>0.9316198815600882</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.955100358938852e-05</v>
+        <v>-5.402225390168174e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3549326286622995</v>
+        <v>0.4606244639694783</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.845655156087775</v>
+        <v>-1.947402628557363</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8429661942455484</v>
+        <v>0.8344162133271319</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.326000506873874</v>
+        <v>2.280477974320152</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7047746688635292</v>
+        <v>0.7102740834628627</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1863.805690017006</v>
+        <v>1633.096720156148</v>
       </c>
       <c r="C17" t="n">
-        <v>0.243473666208033</v>
+        <v>0.300607572525255</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-617.6216071590906</v>
+        <v>-505.8863694799074</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4302960733214959</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-524.3461020582035</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3629680582888235</v>
+        <v>0.5130354787529574</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9100.777874549127</v>
+        <v>8839.105206157101</v>
       </c>
       <c r="C2" t="n">
-        <v>1.17021248047349e-05</v>
+        <v>1.880138807652381e-05</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4097.336792682925</v>
+        <v>-4137.121853227871</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03611821832302247</v>
+        <v>0.03433925313107152</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-4053.563285288528</v>
+        <v>-4137.754992286851</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01721133398840942</v>
+        <v>0.01496060681228537</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3328.26445353266</v>
+        <v>-3417.160940077109</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05022998312981488</v>
+        <v>0.04423215795521016</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-343.3091668250436</v>
+        <v>-324.6762188841448</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3114586294840599</v>
+        <v>0.3380169191750516</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.4838909445012</v>
+        <v>260.6586734733954</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1863816215717783</v>
+        <v>0.1810041814349612</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.22373415368573</v>
+        <v>36.92586791449253</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6025626349641715</v>
+        <v>0.6054914743399532</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1055.380283394821</v>
+        <v>-1052.699853086777</v>
       </c>
       <c r="C9" t="n">
-        <v>7.981458329218753e-09</v>
+        <v>8.702274652538458e-09</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.93147295011008</v>
+        <v>-18.62991539206264</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01766751387110824</v>
+        <v>0.01950963067010787</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>333.7240455769515</v>
+        <v>345.4202125145171</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001215906591428576</v>
+        <v>6.329602924003684e-05</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>681.7412966261111</v>
+        <v>703.9748872673415</v>
       </c>
       <c r="C12" t="n">
-        <v>1.00277868486777e-26</v>
+        <v>1.347631413000559e-30</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07106968104059147</v>
+        <v>0.04571779747280607</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3189674034688582</v>
+        <v>0.5038405569702225</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.262062769122218e-05</v>
+        <v>-7.195272656005476e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2178773303737004</v>
+        <v>0.326566113614995</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.813190992623287</v>
+        <v>-5.901733884868502</v>
       </c>
       <c r="C15" t="n">
-        <v>0.534018957031922</v>
+        <v>0.5278252390972633</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2617388640084872</v>
+        <v>-0.2632955758762532</v>
       </c>
       <c r="C16" t="n">
-        <v>0.965243432923634</v>
+        <v>0.9650392353945618</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1916.277796912371</v>
+        <v>1635.288749677306</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2262065740255612</v>
+        <v>0.2968663967006339</v>
       </c>
     </row>
     <row r="18">
@@ -944,23 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1173.889674147999</v>
+        <v>-1009.395642552376</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1352781746818891</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-708.9502654292413</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2096590715039026</v>
+        <v>0.1927379618331791</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6049.529474878697</v>
+        <v>5807.742444006843</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003488258232190675</v>
+        <v>0.004845218850401438</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3237.54336574901</v>
+        <v>-3266.71904526035</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1015623586969471</v>
+        <v>0.09851428390147475</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2547.232426329147</v>
+        <v>-2634.806667197074</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1329362837613871</v>
+        <v>0.1198111710558376</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1640.82188667922</v>
+        <v>-1732.09435747511</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3326866764178178</v>
+        <v>0.3060572038532253</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109.6053588976501</v>
+        <v>-100.1177837547435</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7426687460002115</v>
+        <v>0.764203771653061</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.43361748385132</v>
+        <v>63.40431966853942</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7440796989670335</v>
+        <v>0.7442083010996872</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.31349410774403</v>
+        <v>87.00015422067726</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2172155796069666</v>
+        <v>0.2188940830865352</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-919.3009744494688</v>
+        <v>-916.9979984706581</v>
       </c>
       <c r="C9" t="n">
-        <v>4.54513255821906e-07</v>
+        <v>4.854954457815642e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-8.831797839924205</v>
+        <v>-8.649595911687342</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2723909472469691</v>
+        <v>0.2823504757373974</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>378.3187499341616</v>
+        <v>391.0999471644444</v>
       </c>
       <c r="C11" t="n">
-        <v>8.772265030090622e-06</v>
+        <v>3.656290176408847e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>655.8174651771653</v>
+        <v>677.4491531494814</v>
       </c>
       <c r="C12" t="n">
-        <v>1.089589689471206e-24</v>
+        <v>3.010838799301621e-28</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02047100429012485</v>
+        <v>-0.04630681039826734</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7759004281980657</v>
+        <v>0.5005514633797447</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.488537457517388e-05</v>
+        <v>-4.444503854697823e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3857011753593994</v>
+        <v>0.5421410452490312</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.41543916584973</v>
+        <v>1.468105826604074</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8805050965135744</v>
+        <v>0.8761000823740653</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.765397763029837</v>
+        <v>2.736782009433441</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6508623906341727</v>
+        <v>0.6542553637225498</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2355.150727536176</v>
+        <v>2057.177967182184</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1392452534228358</v>
+        <v>0.1912502528924631</v>
       </c>
     </row>
     <row r="18">
@@ -1214,23 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>59.92338151546863</v>
+        <v>209.8980704273446</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9388149619885984</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-695.5330743054835</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2215294720110394</v>
+        <v>0.7854406762783224</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5875.360901881713</v>
+        <v>5597.54258217636</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002614809336604192</v>
+        <v>0.003924163743251157</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2111.02125478775</v>
+        <v>-2150.515284364155</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2494284055178289</v>
+        <v>0.2406606594242426</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2017.818069181892</v>
+        <v>-2103.331085883277</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1969151553802025</v>
+        <v>0.1782678793381048</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1253.065145208039</v>
+        <v>-1345.051702534332</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4224666125034148</v>
+        <v>0.3887888384002488</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38.66253060067908</v>
+        <v>-25.55910894941434</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9091190841567568</v>
+        <v>0.9398261516288081</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.38694212355972</v>
+        <v>-24.14202704004659</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8868142961105202</v>
+        <v>0.9001505596150962</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.03282397195674</v>
+        <v>86.68897894419955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.221684878029311</v>
+        <v>0.2235529714316095</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1118.376541185059</v>
+        <v>-1115.152472176387</v>
       </c>
       <c r="C9" t="n">
-        <v>7.856622048304037e-10</v>
+        <v>8.778066287283246e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.1453566476239</v>
+        <v>-15.99226264681254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04233510414492259</v>
+        <v>0.04432456718027712</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>414.9064322495874</v>
+        <v>428.5412483259448</v>
       </c>
       <c r="C11" t="n">
-        <v>8.821567254474685e-07</v>
+        <v>3.128917324891319e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>697.7946161730282</v>
+        <v>721.5344160113393</v>
       </c>
       <c r="C12" t="n">
-        <v>4.906775766412481e-28</v>
+        <v>2.749005295732793e-32</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0515431974916128</v>
+        <v>0.02392151215340678</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4698400516810086</v>
+        <v>0.7256453467818217</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001105849052504303</v>
+        <v>-8.804055013337603e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1391897842408287</v>
+        <v>0.2265079636411014</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.061313572148039</v>
+        <v>2.088311026940142</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8232878914726708</v>
+        <v>0.8210273938293562</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.258687056913627</v>
+        <v>2.221864921533436</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7082332417885122</v>
+        <v>0.7127979755580742</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2387.729715534538</v>
+        <v>2080.641474674675</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1306424068250676</v>
+        <v>0.1829640064426303</v>
       </c>
     </row>
     <row r="18">
@@ -1484,23 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-570.1209334197471</v>
+        <v>-393.4132388884712</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4635287269937148</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-743.8957184223777</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1878623658231935</v>
+        <v>0.6075981265244459</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4977.073764075941</v>
+        <v>4791.127016562832</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01171549869016094</v>
+        <v>0.01458921302203908</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2310.837621941372</v>
+        <v>-2337.633034325181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2158610487611572</v>
+        <v>0.2104999709417775</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2318.807868985873</v>
+        <v>-2373.527083206585</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1392902613477401</v>
+        <v>0.1298437528682969</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1531.285115266004</v>
+        <v>-1587.446653728792</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3284128457568359</v>
+        <v>0.3105144591047199</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.879631110842638</v>
+        <v>2.082224929694959</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9858339443499317</v>
+        <v>0.9949806708902929</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>242.4110374751303</v>
+        <v>243.6266853121886</v>
       </c>
       <c r="C7" t="n">
-        <v>0.211088537660678</v>
+        <v>0.2087785924545813</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.77757663542911</v>
+        <v>31.02036849228512</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6582356352780747</v>
+        <v>0.6658422425063534</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1004.741916839442</v>
+        <v>-1002.814989267863</v>
       </c>
       <c r="C9" t="n">
-        <v>3.358775112744407e-08</v>
+        <v>3.553193365514353e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9.509240991424385</v>
+        <v>-9.291200873598775</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2314686428013712</v>
+        <v>0.2420664167433128</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>367.1574812383803</v>
+        <v>375.2568964896763</v>
       </c>
       <c r="C11" t="n">
-        <v>1.830449171539435e-05</v>
+        <v>1.043887873731647e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>733.529612781653</v>
+        <v>748.849449385252</v>
       </c>
       <c r="C12" t="n">
-        <v>1.408300596959906e-30</v>
+        <v>1.548945752327551e-34</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06471725447254442</v>
+        <v>0.04719140634017081</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3661487244617097</v>
+        <v>0.4903154613317087</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.000104754400263945</v>
+        <v>-9.080786082195765e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.161329931181564</v>
+        <v>0.2126898698094796</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.908455683173452</v>
+        <v>5.045078071113897</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5989723665448609</v>
+        <v>0.5887693100055404</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.957029683787932</v>
+        <v>3.992759790161839</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5264566134573377</v>
+        <v>0.5227041251236965</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3418.317779137793</v>
+        <v>3222.87753115403</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03320566605371421</v>
+        <v>0.0423554057752551</v>
       </c>
     </row>
     <row r="18">
@@ -1754,23 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-488.0107325230388</v>
+        <v>-385.5287963668939</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5278303197884726</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-469.3633719520899</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4074398076383037</v>
+        <v>0.613362367937113</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4772.535978039623</v>
+        <v>4442.931456045554</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02493227770386823</v>
+        <v>0.03606262095139907</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-164.6645514812915</v>
+        <v>-228.2119401905165</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9360393483074644</v>
+        <v>0.9114468873414225</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-621.2303173379078</v>
+        <v>-743.7741216378508</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7250299186034649</v>
+        <v>0.6734625443080693</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131.0739914380184</v>
+        <v>0.7145067807608712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9407819373876273</v>
+        <v>0.9996766488193568</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-194.2993936116115</v>
+        <v>-176.1397645199587</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5576989085081154</v>
+        <v>0.5949733458124808</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.0505857975747</v>
+        <v>200.6499024536823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3043215596581855</v>
+        <v>0.3005506247834678</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.59649158427699</v>
+        <v>55.74282131939083</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4367574023745909</v>
+        <v>0.4356494091867495</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-881.2110748566922</v>
+        <v>-876.2941410370655</v>
       </c>
       <c r="C9" t="n">
-        <v>1.199661073320916e-06</v>
+        <v>1.377178420844413e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.26865655164428</v>
+        <v>-22.04302662691632</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005558143283307995</v>
+        <v>0.006060294371365169</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>297.7386628348831</v>
+        <v>315.7099982081886</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004945365462192828</v>
+        <v>0.0001973607014136304</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>699.6286778581</v>
+        <v>728.6653114471295</v>
       </c>
       <c r="C12" t="n">
-        <v>3.73312830289989e-28</v>
+        <v>1.171726198168489e-32</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05467301721116277</v>
+        <v>0.02094340608170208</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4485957708660864</v>
+        <v>0.7624526579998538</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001208089277139124</v>
+        <v>-9.438656876085027e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.107372574277725</v>
+        <v>0.198231885716872</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1124344731135238</v>
+        <v>0.08416145409369657</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9903678477997546</v>
+        <v>0.992791424638599</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.651262199547522</v>
+        <v>3.628020676994723</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5616842656431849</v>
+        <v>0.5642599382695473</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3287.845334654646</v>
+        <v>2931.614075877258</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04043721620081738</v>
+        <v>0.06529475879313901</v>
       </c>
     </row>
     <row r="18">
@@ -2024,23 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-485.6249587997902</v>
+        <v>-279.8883124714839</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5311545275111784</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-938.6658676072052</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.09441500659632694</v>
+        <v>0.7147468251088033</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5380.58299687437</v>
+        <v>5259.046094019797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006525765097535129</v>
+        <v>0.007521557960139248</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1640.654259613247</v>
+        <v>-1666.66798857354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3875359805653936</v>
+        <v>0.3798965694975548</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1566.371869634499</v>
+        <v>-1605.447442246635</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3309430840112286</v>
+        <v>0.3185956744624674</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-857.8653132889892</v>
+        <v>-898.8187593882501</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5940250246711036</v>
+        <v>0.5761642984681554</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.55567463939065</v>
+        <v>28.06470390138429</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9437674156860668</v>
+        <v>0.9330048683454628</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>193.1263014608128</v>
+        <v>194.7240794969728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.312996570541315</v>
+        <v>0.3089275527635983</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.03144529919858</v>
+        <v>55.16525679637257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4309365196712447</v>
+        <v>0.4297796558056111</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1165.865110909164</v>
+        <v>-1164.219278479719</v>
       </c>
       <c r="C9" t="n">
-        <v>1.08635716545038e-10</v>
+        <v>1.144056177289225e-10</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.90769044584874</v>
+        <v>-16.85429144382664</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0322450439445762</v>
+        <v>0.03276949506536749</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>413.3776281652006</v>
+        <v>419.2738098071302</v>
       </c>
       <c r="C11" t="n">
-        <v>8.508413524169583e-07</v>
+        <v>4.959337050483012e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>691.0016166553287</v>
+        <v>701.3810372744886</v>
       </c>
       <c r="C12" t="n">
-        <v>1.969184432525501e-28</v>
+        <v>1.70913289983879e-31</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07926691425015275</v>
+        <v>0.06749157366704808</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2643909594550447</v>
+        <v>0.322954828134661</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001348142311693299</v>
+        <v>-0.000125570587164884</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0680842458898939</v>
+        <v>0.082340563265385</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.282584542854323</v>
+        <v>2.247025412156075</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8032969941612533</v>
+        <v>0.8062815921734445</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.249163673545464</v>
+        <v>1.257946695858172</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8364778929085037</v>
+        <v>0.835331799330901</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2432.284128540057</v>
+        <v>2301.935967191164</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1165897893346248</v>
+        <v>0.133634210621065</v>
       </c>
     </row>
     <row r="18">
@@ -2294,23 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-941.7614422389587</v>
+        <v>-869.1442754248958</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2223622998296332</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-340.4173981217348</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5462029433340128</v>
+        <v>0.2541931282250793</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5298.045837966307</v>
+        <v>5211.288071375874</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007738349326240089</v>
+        <v>0.008456628687258647</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1778.261355683136</v>
+        <v>-1794.969417841863</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3503419010065471</v>
+        <v>0.3456890684835053</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2100.976622920002</v>
+        <v>-2130.346559285915</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1846371079616233</v>
+        <v>0.1781375537013386</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1325.345592733969</v>
+        <v>-1355.652900189098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4021060322869523</v>
+        <v>0.3909241026276314</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-223.4103907592228</v>
+        <v>-218.6431232733756</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5094354544624107</v>
+        <v>0.5182519385188084</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145.6939478222177</v>
+        <v>146.7643891226153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4565009871708787</v>
+        <v>0.4531201852360123</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.68508962340746</v>
+        <v>84.5659158713018</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2403969373585977</v>
+        <v>0.2410103405965901</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-913.1176735465498</v>
+        <v>-913.4133025387703</v>
       </c>
       <c r="C9" t="n">
-        <v>6.506561127999711e-07</v>
+        <v>6.435660505466153e-07</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-14.88134733781389</v>
+        <v>-14.83844595825285</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06476226084398801</v>
+        <v>0.06549125045957901</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>402.4017116375466</v>
+        <v>407.1859657691303</v>
       </c>
       <c r="C11" t="n">
-        <v>2.790556022915306e-06</v>
+        <v>1.742520977250484e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>670.4352938032823</v>
+        <v>678.0653117043962</v>
       </c>
       <c r="C12" t="n">
-        <v>9.957489565546095e-26</v>
+        <v>2.734235707290122e-28</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01082714225019341</v>
+        <v>0.001523115277988187</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8818359808389913</v>
+        <v>0.9825431355330152</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.123425006552188e-05</v>
+        <v>-6.392054646053905e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3476340999815383</v>
+        <v>0.3873463108681205</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.764355565617323</v>
+        <v>3.740107963111337</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6894836282356098</v>
+        <v>0.6913470876143517</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.889045248548403</v>
+        <v>9.882921710366908</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1138971602816724</v>
+        <v>0.1140852367629153</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>572.7680406458707</v>
+        <v>469.4875568659286</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7200852137332134</v>
+        <v>0.7664160127801545</v>
       </c>
     </row>
     <row r="18">
@@ -2564,23 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-623.5399481719878</v>
+        <v>-569.7899132452659</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4297713885940619</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-251.1349259901023</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6641612878401804</v>
+        <v>0.465006859747417</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5353.854352309412</v>
+        <v>5389.676292123428</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02641173352798643</v>
+        <v>0.02472626652253501</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1892.768408404349</v>
+        <v>-1893.650162976181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4255592957700662</v>
+        <v>0.4252885630471641</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2183.044485419966</v>
+        <v>-2176.759454323099</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2970740110821912</v>
+        <v>0.2983190167729602</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1544.220364558679</v>
+        <v>-1537.435909622162</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4605218442678245</v>
+        <v>0.4623433602704069</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>271.3000686105811</v>
+        <v>269.5465078201018</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4268836330606567</v>
+        <v>0.4295683308227586</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.8412595097575</v>
+        <v>204.413347816566</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2962056899432725</v>
+        <v>0.2971111342779218</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.84957148837458</v>
+        <v>74.74817910407617</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3004778516106229</v>
+        <v>0.3010567853296794</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-892.2681024080838</v>
+        <v>-892.8473909557299</v>
       </c>
       <c r="C9" t="n">
-        <v>1.244908689333211e-06</v>
+        <v>1.215665788467028e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.49810005502818</v>
+        <v>-17.51895299034961</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03176298725856178</v>
+        <v>0.03151690957879286</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.7267117744242</v>
+        <v>430.1955391779526</v>
       </c>
       <c r="C11" t="n">
-        <v>4.735918380538668e-07</v>
+        <v>4.337609869812557e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>708.8732094174238</v>
+        <v>706.1639201834914</v>
       </c>
       <c r="C12" t="n">
-        <v>1.571152451401147e-28</v>
+        <v>1.645736097609718e-30</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03059851790854302</v>
+        <v>0.03376679616773415</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6748274391865088</v>
+        <v>0.6294025525758153</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.830184430398581e-05</v>
+        <v>-8.080328634547988e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3020061413332983</v>
+        <v>0.2755133143156334</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.90154323311781</v>
+        <v>1.915864873791725</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8386721639440953</v>
+        <v>0.8374474385376389</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.051048842587731</v>
+        <v>4.052837274640941</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5181246370171606</v>
+        <v>0.5178905420186026</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2060.519856921351</v>
+        <v>2095.522297643698</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1977132780693769</v>
+        <v>0.1856641528684115</v>
       </c>
     </row>
     <row r="18">
@@ -2834,23 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-352.3369848096501</v>
+        <v>-372.8659436544199</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6577659793078718</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>88.27872277477343</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8774498202067758</v>
+        <v>0.6343774714391558</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Nantes.xlsx
+++ b/outputs/ML_Results/dist_commute/Nantes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ31538385" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ31792159" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ32071479" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ32350249" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ32625549" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ32898141" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ33179412" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ33500342" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ33900235" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ42385369" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ42731864" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ43094895" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ43460861" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ43805599" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ44183646" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ44561639" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ44940938" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ45350796" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6034.329738730387</v>
+        <v>5952.197428676025</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002033847996275638</v>
+        <v>0.002333105987335258</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2795.438860808449</v>
+        <v>-2819.615594493447</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1367425888472357</v>
+        <v>0.1333700363169815</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2258.509880761469</v>
+        <v>-2270.203787731489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1515552451973355</v>
+        <v>0.149397559469976</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1600.203155881567</v>
+        <v>-1610.682203311114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3090251430484663</v>
+        <v>0.3058170740471684</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.107207084220818</v>
+        <v>-6.948300826427968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9901672170004172</v>
+        <v>0.9833652720723065</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>239.3821353268765</v>
+        <v>242.5469681491499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2196362665347851</v>
+        <v>0.2136361716380995</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.5632109599123</v>
+        <v>158.8752403841367</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02819792771598132</v>
+        <v>0.02782691429934176</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1063.155916136795</v>
+        <v>-1060.509278261871</v>
       </c>
       <c r="C9" t="n">
-        <v>6.375644706446042e-09</v>
+        <v>6.943905254133224e-09</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-12.09160725450919</v>
+        <v>-12.04715799415957</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1335169214265667</v>
+        <v>0.135001900619045</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>352.0666015784151</v>
+        <v>357.7123489899088</v>
       </c>
       <c r="C11" t="n">
-        <v>3.119109133035904e-05</v>
+        <v>2.172492356969643e-05</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>670.2298801473326</v>
+        <v>671.3799293223959</v>
       </c>
       <c r="C12" t="n">
-        <v>4.967479259354167e-28</v>
+        <v>2.900380455195371e-28</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.005901881398159354</v>
+        <v>-0.0006530387092087107</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9316198815600882</v>
+        <v>0.992332708994754</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.402225390168174e-05</v>
+        <v>-5.099463049839068e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4606244639694783</v>
+        <v>0.475232444122706</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.947402628557363</v>
+        <v>-1.116272905167495</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8344162133271319</v>
+        <v>0.905125836260478</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.280477974320152</v>
+        <v>2.482418912776229</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7102740834628627</v>
+        <v>0.6865939286693673</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1633.096720156148</v>
+        <v>1787.739529131671</v>
       </c>
       <c r="C17" t="n">
-        <v>0.300607572525255</v>
+        <v>0.2506810905376007</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-505.8863694799074</v>
+        <v>-515.6915549412762</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5130354787529574</v>
+        <v>0.5047657854435076</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8839.105206157101</v>
+        <v>8702.436267342235</v>
       </c>
       <c r="C2" t="n">
-        <v>1.880138807652381e-05</v>
+        <v>2.518753945078394e-05</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4137.121853227871</v>
+        <v>-4165.71718982186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03433925313107152</v>
+        <v>0.03311976894506423</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-4137.754992286851</v>
+        <v>-4149.132794238199</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01496060681228537</v>
+        <v>0.01468346736224855</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3417.160940077109</v>
+        <v>-3426.091555637146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04423215795521016</v>
+        <v>0.0436784373149364</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-324.6762188841448</v>
+        <v>-329.072724978162</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3380169191750516</v>
+        <v>0.3314973205174518</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>260.6586734733954</v>
+        <v>263.5787028068759</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1810041814349612</v>
+        <v>0.1762206595764667</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.92586791449253</v>
+        <v>36.79838384069494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6054914743399532</v>
+        <v>0.6066405885946636</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1052.699853086777</v>
+        <v>-1050.682285821924</v>
       </c>
       <c r="C9" t="n">
-        <v>8.702274652538458e-09</v>
+        <v>9.276476964028322e-09</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.62991539206264</v>
+        <v>-18.58633518911671</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01950963067010787</v>
+        <v>0.01980626956820535</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>345.4202125145171</v>
+        <v>353.9660322995592</v>
       </c>
       <c r="C11" t="n">
-        <v>6.329602924003684e-05</v>
+        <v>3.898850359556341e-05</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>703.9748872673415</v>
+        <v>705.8945436628151</v>
       </c>
       <c r="C12" t="n">
-        <v>1.347631413000559e-30</v>
+        <v>6.625446617235745e-31</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04571779747280607</v>
+        <v>0.03510710306044521</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5038405569702225</v>
+        <v>0.6029444606778239</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.195272656005476e-05</v>
+        <v>-6.202958900619902e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.326566113614995</v>
+        <v>0.3855143271327429</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.901733884868502</v>
+        <v>-5.499416803118192</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5278252390972633</v>
+        <v>0.5580923424695541</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2632955758762532</v>
+        <v>-0.0160108405138093</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9650392353945618</v>
+        <v>0.9978781325516972</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1635.288749677306</v>
+        <v>1828.148362183483</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2968663967006339</v>
+        <v>0.237001413811267</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1009.395642552376</v>
+        <v>-875.5298089787048</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1927379618331791</v>
+        <v>0.2581922293694729</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5807.742444006843</v>
+        <v>5706.486228258791</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004845218850401438</v>
+        <v>0.005616621998611897</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3266.71904526035</v>
+        <v>-3278.878835256267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09851428390147475</v>
+        <v>0.09722678045477723</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2634.806667197074</v>
+        <v>-2638.838542306969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1198111710558376</v>
+        <v>0.1191807302698848</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1732.09435747511</v>
+        <v>-1734.357538610883</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3060572038532253</v>
+        <v>0.305348525609168</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-100.1177837547435</v>
+        <v>-103.5856942330903</v>
       </c>
       <c r="C6" t="n">
-        <v>0.764203771653061</v>
+        <v>0.7562676288419532</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.40431966853942</v>
+        <v>67.04533828102831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7442083010996872</v>
+        <v>0.7300957011739333</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.00015422067726</v>
+        <v>86.61550973561476</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2188940830865352</v>
+        <v>0.2208282339127203</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-916.9979984706581</v>
+        <v>-915.3048219982823</v>
       </c>
       <c r="C9" t="n">
-        <v>4.854954457815642e-07</v>
+        <v>5.088089330640015e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-8.649595911687342</v>
+        <v>-8.671989217271872</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2823504757373974</v>
+        <v>0.2811483184197461</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>391.0999471644444</v>
+        <v>396.0263829395473</v>
       </c>
       <c r="C11" t="n">
-        <v>3.656290176408847e-06</v>
+        <v>2.554968314964311e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>677.4491531494814</v>
+        <v>678.9671383815382</v>
       </c>
       <c r="C12" t="n">
-        <v>3.010838799301621e-28</v>
+        <v>1.643314822885785e-28</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04630681039826734</v>
+        <v>-0.05370095910511798</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5005514633797447</v>
+        <v>0.4286846326193751</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.444503854697823e-05</v>
+        <v>-4.209108900583581e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5421410452490312</v>
+        <v>0.5533102150734139</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.468105826604074</v>
+        <v>2.467119643074264</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8761000823740653</v>
+        <v>0.7943586627389218</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.736782009433441</v>
+        <v>3.030407150627478</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6542553637225498</v>
+        <v>0.6206834027718711</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2057.177967182184</v>
+        <v>2199.526481706182</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1912502528924631</v>
+        <v>0.1562912062932377</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>209.8980704273446</v>
+        <v>202.0167242816183</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7854406762783224</v>
+        <v>0.7931356844018519</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5597.54258217636</v>
+        <v>5537.794964110083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003924163743251157</v>
+        <v>0.004317514625105332</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2150.515284364155</v>
+        <v>-2169.476296561974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2406606594242426</v>
+        <v>0.2365195888466575</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2103.331085883277</v>
+        <v>-2114.090517445125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1782678793381048</v>
+        <v>0.17601259976217</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1345.051702534332</v>
+        <v>-1354.576747614815</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3887888384002488</v>
+        <v>0.3853947108986889</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25.55910894941434</v>
+        <v>-30.19603046585951</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9398261516288081</v>
+        <v>0.9289355424131569</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.14202704004659</v>
+        <v>-22.14638171016701</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9001505596150962</v>
+        <v>0.9083619078914418</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.68897894419955</v>
+        <v>86.74673280523223</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2235529714316095</v>
+        <v>0.223153900785588</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1115.152472176387</v>
+        <v>-1112.444431597815</v>
       </c>
       <c r="C9" t="n">
-        <v>8.778066287283246e-10</v>
+        <v>9.665829988779098e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.99226264681254</v>
+        <v>-15.94332720958481</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04432456718027712</v>
+        <v>0.04498740085952133</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>428.5412483259448</v>
+        <v>434.9092487972302</v>
       </c>
       <c r="C11" t="n">
-        <v>3.128917324891319e-07</v>
+        <v>1.93037302140367e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>721.5344160113393</v>
+        <v>721.0007366629953</v>
       </c>
       <c r="C12" t="n">
-        <v>2.749005295732793e-32</v>
+        <v>2.003162395313307e-32</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02392151215340678</v>
+        <v>0.0138374737545926</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7256453467818217</v>
+        <v>0.8370286396637421</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.804055013337603e-05</v>
+        <v>-8.197378336417283e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2265079636411014</v>
+        <v>0.2474601905400522</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.088311026940142</v>
+        <v>3.147103143147047</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8210273938293562</v>
+        <v>0.7345512505679638</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.221864921533436</v>
+        <v>2.41975366103957</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7127979755580742</v>
+        <v>0.6891931282602906</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2080.641474674675</v>
+        <v>2140.707450655334</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1829640064426303</v>
+        <v>0.1645541353463699</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-393.4132388884712</v>
+        <v>-420.4551428089361</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6075981265244459</v>
+        <v>0.5828083658268186</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4791.127016562832</v>
+        <v>4726.978875652519</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01458921302203908</v>
+        <v>0.01592547570061853</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2337.633034325181</v>
+        <v>-2367.422627187684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2104999709417775</v>
+        <v>0.2046904467574567</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2373.527083206585</v>
+        <v>-2385.49990108627</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1298437528682969</v>
+        <v>0.1278485004658879</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1587.446653728792</v>
+        <v>-1599.189948142603</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3105144591047199</v>
+        <v>0.3068707576152601</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.082224929694959</v>
+        <v>-1.699529449472436</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9949806708902929</v>
+        <v>0.9959032133378763</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>243.6266853121886</v>
+        <v>247.4945257814733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2087785924545813</v>
+        <v>0.2016636568988707</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.02036849228512</v>
+        <v>31.34634485701969</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6658422425063534</v>
+        <v>0.6624150960057869</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1002.814989267863</v>
+        <v>-999.3806698539755</v>
       </c>
       <c r="C9" t="n">
-        <v>3.553193365514353e-08</v>
+        <v>3.944143814656254e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9.291200873598775</v>
+        <v>-9.177247408538461</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2420664167433128</v>
+        <v>0.2478577236640418</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>375.2568964896763</v>
+        <v>380.2968455368489</v>
       </c>
       <c r="C11" t="n">
-        <v>1.043887873731647e-05</v>
+        <v>7.484823443794182e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>748.849449385252</v>
+        <v>751.340069096661</v>
       </c>
       <c r="C12" t="n">
-        <v>1.548945752327551e-34</v>
+        <v>5.693881170250018e-35</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04719140634017081</v>
+        <v>0.04674288879623088</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4903154613317087</v>
+        <v>0.4890465087872192</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.080786082195765e-05</v>
+        <v>-9.275472945859449e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2126898698094796</v>
+        <v>0.1915856200446248</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.045078071113897</v>
+        <v>5.762543850081371</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5887693100055404</v>
+        <v>0.5388731647905647</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.992759790161839</v>
+        <v>4.053798352089634</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5227041251236965</v>
+        <v>0.5172641389117758</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3222.87753115403</v>
+        <v>3445.401837776672</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0423554057752551</v>
+        <v>0.02761072118384689</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-385.5287963668939</v>
+        <v>-451.3282220981177</v>
       </c>
       <c r="C18" t="n">
-        <v>0.613362367937113</v>
+        <v>0.5535964727267607</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4442.931456045554</v>
+        <v>4404.049967544601</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03606262095139907</v>
+        <v>0.03766951914361682</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-228.2119401905165</v>
+        <v>-238.3092569436213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9114468873414225</v>
+        <v>0.9075474758344928</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-743.7741216378508</v>
+        <v>-749.2656383224066</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6734625443080693</v>
+        <v>0.6711766265978159</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7145067807608712</v>
+        <v>-3.760095490707329</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996766488193568</v>
+        <v>0.9982983001867445</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-176.1397645199587</v>
+        <v>-177.4396144128092</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5949733458124808</v>
+        <v>0.5922295076232329</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.6499024536823</v>
+        <v>201.8422390912664</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3005506247834678</v>
+        <v>0.297763106829332</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.74282131939083</v>
+        <v>55.37740312320842</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4356494091867495</v>
+        <v>0.4384746923782921</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-876.2941410370655</v>
+        <v>-874.297626616766</v>
       </c>
       <c r="C9" t="n">
-        <v>1.377178420844413e-06</v>
+        <v>1.456906744038653e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.04302662691632</v>
+        <v>-22.15619946851808</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006060294371365169</v>
+        <v>0.005808603892420155</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>315.7099982081886</v>
+        <v>319.5941632779933</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001973607014136304</v>
+        <v>0.0001563634394292084</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>728.6653114471295</v>
+        <v>727.6716256845742</v>
       </c>
       <c r="C12" t="n">
-        <v>1.171726198168489e-32</v>
+        <v>8.766912042045488e-33</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02094340608170208</v>
+        <v>0.01195098423351743</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7624526579998538</v>
+        <v>0.8613085063060875</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.438656876085027e-05</v>
+        <v>-8.739617486636085e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.198231885716872</v>
+        <v>0.2210915982614407</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08416145409369657</v>
+        <v>0.3076636764464751</v>
       </c>
       <c r="C15" t="n">
-        <v>0.992791424638599</v>
+        <v>0.9737349121787524</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.628020676994723</v>
+        <v>3.760442809710546</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5642599382695473</v>
+        <v>0.5511051760848469</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2931.614075877258</v>
+        <v>2951.498914691216</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06529475879313901</v>
+        <v>0.05964009502542041</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-279.8883124714839</v>
+        <v>-194.9842438072092</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7147468251088033</v>
+        <v>0.7983513919761633</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5259.046094019797</v>
+        <v>5194.896062342292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007521557960139248</v>
+        <v>0.008269660503230067</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1666.66798857354</v>
+        <v>-1697.282700218269</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3798965694975548</v>
+        <v>0.3711672199126024</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1605.447442246635</v>
+        <v>-1624.871978966247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3185956744624674</v>
+        <v>0.3127170235034563</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-898.8187593882501</v>
+        <v>-916.0191497937751</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5761642984681554</v>
+        <v>0.5688463511810353</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.06470390138429</v>
+        <v>21.97671423155759</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9330048683454628</v>
+        <v>0.9475156636824053</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>194.7240794969728</v>
+        <v>196.7803891827608</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3089275527635983</v>
+        <v>0.30389800411528</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.16525679637257</v>
+        <v>54.813537994344</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4297796558056111</v>
+        <v>0.4325901866303107</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1164.219278479719</v>
+        <v>-1159.849383183364</v>
       </c>
       <c r="C9" t="n">
-        <v>1.144056177289225e-10</v>
+        <v>1.336588887917865e-10</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.85429144382664</v>
+        <v>-16.82334845967333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03276949506536749</v>
+        <v>0.03309700952653604</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>419.2738098071302</v>
+        <v>428.0425514943183</v>
       </c>
       <c r="C11" t="n">
-        <v>4.959337050483012e-07</v>
+        <v>2.612030950905475e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>701.3810372744886</v>
+        <v>699.7249558921767</v>
       </c>
       <c r="C12" t="n">
-        <v>1.70913289983879e-31</v>
+        <v>1.67503430624113e-31</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06749157366704808</v>
+        <v>0.05185373323624139</v>
       </c>
       <c r="C13" t="n">
-        <v>0.322954828134661</v>
+        <v>0.4414210457712373</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.000125570587164884</v>
+        <v>-0.0001144379094334245</v>
       </c>
       <c r="C14" t="n">
-        <v>0.082340563265385</v>
+        <v>0.1041527193691457</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.247025412156075</v>
+        <v>3.482427917980859</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8062815921734445</v>
+        <v>0.7052611572871057</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.257946695858172</v>
+        <v>1.5144712796477</v>
       </c>
       <c r="C16" t="n">
-        <v>0.835331799330901</v>
+        <v>0.8027930233023218</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2301.935967191164</v>
+        <v>2338.87410356178</v>
       </c>
       <c r="C17" t="n">
-        <v>0.133634210621065</v>
+        <v>0.1220897613414352</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-869.1442754248958</v>
+        <v>-864.1907215800857</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2541931282250793</v>
+        <v>0.2567051107713871</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5211.288071375874</v>
+        <v>5152.868938060117</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008456628687258647</v>
+        <v>0.009216657805109994</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1794.969417841863</v>
+        <v>-1811.845345749812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3456890684835053</v>
+        <v>0.341156806421311</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2130.346559285915</v>
+        <v>-2140.116620114298</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1781375537013386</v>
+        <v>0.1761123709673268</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1355.652900189098</v>
+        <v>-1363.66476316488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3909241026276314</v>
+        <v>0.3880893491422264</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-218.6431232733756</v>
+        <v>-221.4617107386584</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5182519385188084</v>
+        <v>0.5129174414973234</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146.7643891226153</v>
+        <v>149.3701249192055</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4531201852360123</v>
+        <v>0.4451728662638562</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.5659158713018</v>
+        <v>84.83415582913173</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2410103405965901</v>
+        <v>0.2394215318750809</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-913.4133025387703</v>
+        <v>-911.2135384202263</v>
       </c>
       <c r="C9" t="n">
-        <v>6.435660505466153e-07</v>
+        <v>6.833597723436825e-07</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-14.83844595825285</v>
+        <v>-14.73443827476084</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06549125045957901</v>
+        <v>0.06743846090429573</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>407.1859657691303</v>
+        <v>411.9683141423417</v>
       </c>
       <c r="C11" t="n">
-        <v>1.742520977250484e-06</v>
+        <v>1.203005943687446e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>678.0653117043962</v>
+        <v>678.8654294678138</v>
       </c>
       <c r="C12" t="n">
-        <v>2.734235707290122e-28</v>
+        <v>1.861869726806427e-28</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001523115277988187</v>
+        <v>-0.001406313316238677</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9825431355330152</v>
+        <v>0.9836915866561582</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.392054646053905e-05</v>
+        <v>-6.66274914691176e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3873463108681205</v>
+        <v>0.355688605668279</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.740107963111337</v>
+        <v>4.887456768157297</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6913470876143517</v>
+        <v>0.6056651592425977</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.882921710366908</v>
+        <v>10.08284605780757</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1140852367629153</v>
+        <v>0.1077492889656931</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>469.4875568659286</v>
+        <v>648.2460795423638</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7664160127801545</v>
+        <v>0.6779185104729655</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-569.7899132452659</v>
+        <v>-685.1263162753097</v>
       </c>
       <c r="C18" t="n">
-        <v>0.465006859747417</v>
+        <v>0.3798150985925667</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5389.676292123428</v>
+        <v>5357.757075747021</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02472626652253501</v>
+        <v>0.02561266675114658</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1893.650162976181</v>
+        <v>-1907.288957444791</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4252885630471641</v>
+        <v>0.4219236751819271</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2176.759454323099</v>
+        <v>-2182.750121734329</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2983190167729602</v>
+        <v>0.2969459033484491</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1537.435909622162</v>
+        <v>-1542.575111715566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4623433602704069</v>
+        <v>0.4608039767912955</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269.5465078201018</v>
+        <v>264.5596093746038</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4295683308227586</v>
+        <v>0.4381658504241835</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.413347816566</v>
+        <v>205.1674542038691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2971111342779218</v>
+        <v>0.2953001036482774</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.74817910407617</v>
+        <v>74.34381443821329</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3010567853296794</v>
+        <v>0.3036188949893581</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-892.8473909557299</v>
+        <v>-891.9107098585694</v>
       </c>
       <c r="C9" t="n">
-        <v>1.215665788467028e-06</v>
+        <v>1.247075234190836e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.51895299034961</v>
+        <v>-17.48977637385575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03151690957879286</v>
+        <v>0.03181761397458747</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>430.1955391779526</v>
+        <v>435.2009922245764</v>
       </c>
       <c r="C11" t="n">
-        <v>4.337609869812557e-07</v>
+        <v>2.891156448984052e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>706.1639201834914</v>
+        <v>705.0155141537529</v>
       </c>
       <c r="C12" t="n">
-        <v>1.645736097609718e-30</v>
+        <v>1.420239552275827e-30</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03376679616773415</v>
+        <v>0.02473632569793074</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6294025525758153</v>
+        <v>0.7204540221358834</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.080328634547988e-05</v>
+        <v>-7.435547712969681e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2755133143156334</v>
+        <v>0.3042215154188878</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.915864873791725</v>
+        <v>2.72605076141175</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8374474385376389</v>
+        <v>0.7715740367698054</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.052837274640941</v>
+        <v>4.196710559749082</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5178905420186026</v>
+        <v>0.5041816243204735</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2095.522297643698</v>
+        <v>2091.643663034114</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1856641528684115</v>
+        <v>0.1814872734584262</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-372.8659436544199</v>
+        <v>-394.7721284332108</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6343774714391558</v>
+        <v>0.6145425130271855</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Nantes.xlsx
+++ b/outputs/ML_Results/dist_commute/Nantes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ42385369" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ42731864" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ43094895" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ43460861" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ43805599" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ44183646" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ44561639" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ44940938" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ45350796" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ58699681" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ59046682" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ59403291" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ59754824" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ00119994" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ00486599" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ00837041" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ01197525" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ01554889" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Nantes.xlsx
+++ b/outputs/ML_Results/dist_commute/Nantes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ58699681" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ59046682" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ59403291" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ59754824" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ00119994" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ00486599" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ00837041" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ01197525" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ01554889" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ55598317" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ55916082" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ56334604" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ56750445" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ57119145" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ57513686" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ57909917" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ58284298" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ58675158" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5952.197428676025</v>
+        <v>5859.947181042666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002333105987335258</v>
+        <v>0.001098379564489524</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2819.615594493447</v>
+        <v>-2813.763375726419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1333700363169815</v>
+        <v>0.1339988789149308</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2270.203787731489</v>
+        <v>-2269.493559246513</v>
       </c>
       <c r="C4" t="n">
-        <v>0.149397559469976</v>
+        <v>0.149474176184961</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1610.682203311114</v>
+        <v>-1609.860997341095</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3058170740471684</v>
+        <v>0.3060022887729799</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.948300826427968</v>
+        <v>-7.878638015524515</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9833652720723065</v>
+        <v>0.9811309796197887</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>242.5469681491499</v>
+        <v>242.3292780207179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2136361716380995</v>
+        <v>0.2139735051417443</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.8752403841367</v>
+        <v>158.5874572349078</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02782691429934176</v>
+        <v>0.02800462417510717</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1060.509278261871</v>
+        <v>-1060.66928619776</v>
       </c>
       <c r="C9" t="n">
-        <v>6.943905254133224e-09</v>
+        <v>6.873685054947612e-09</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-12.04715799415957</v>
+        <v>-12.04432291088825</v>
       </c>
       <c r="C10" t="n">
-        <v>0.135001900619045</v>
+        <v>0.1350462226702838</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.7123489899088</v>
+        <v>357.3166651292909</v>
       </c>
       <c r="C11" t="n">
-        <v>2.172492356969643e-05</v>
+        <v>2.181144041715638e-05</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>671.3799293223959</v>
+        <v>674.835847517862</v>
       </c>
       <c r="C12" t="n">
-        <v>2.900380455195371e-28</v>
+        <v>2.054311705311815e-36</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0006530387092087107</v>
+        <v>-0.003206678224318127</v>
       </c>
       <c r="C13" t="n">
-        <v>0.992332708994754</v>
+        <v>0.9603383185365451</v>
       </c>
     </row>
     <row r="14">
@@ -622,62 +622,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.099463049839068e-05</v>
+        <v>-5.019687677347948e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.475232444122706</v>
+        <v>0.4801806293517464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.116272905167495</v>
+        <v>2.796824703396026</v>
       </c>
       <c r="C15" t="n">
-        <v>0.905125836260478</v>
+        <v>0.6147979246576095</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.482418912776229</v>
+        <v>1775.326466168044</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6865939286693673</v>
+        <v>0.2528647050698066</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1787.739529131671</v>
+        <v>-536.3210911293368</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2506810905376007</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-515.6915549412762</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5047657854435076</v>
+        <v>0.476563961809419</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8702.436267342235</v>
+        <v>8243.068705920046</v>
       </c>
       <c r="C2" t="n">
-        <v>2.518753945078394e-05</v>
+        <v>1.598276995549249e-05</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4165.71718982186</v>
+        <v>-4136.371461764923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03311976894506423</v>
+        <v>0.03430335120129523</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-4149.132794238199</v>
+        <v>-4139.396689430076</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01468346736224855</v>
+        <v>0.01490502766673579</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3426.091555637146</v>
+        <v>-3416.225612759912</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0436784373149364</v>
+        <v>0.0442606364540062</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-329.072724978162</v>
+        <v>-329.637244281516</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3314973205174518</v>
+        <v>0.3306288033539722</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>263.5787028068759</v>
+        <v>263.8674282220933</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1762206595764667</v>
+        <v>0.1757124307722592</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.79838384069494</v>
+        <v>35.14902024626719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6066405885946636</v>
+        <v>0.6225648419583255</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1050.682285821924</v>
+        <v>-1052.038312270067</v>
       </c>
       <c r="C9" t="n">
-        <v>9.276476964028322e-09</v>
+        <v>8.832507584432025e-09</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.58633518911671</v>
+        <v>-18.54135164715232</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01980626956820535</v>
+        <v>0.02009058306354017</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>353.9660322995592</v>
+        <v>351.5051820686689</v>
       </c>
       <c r="C11" t="n">
-        <v>3.898850359556341e-05</v>
+        <v>4.312773591348203e-05</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>705.8945436628151</v>
+        <v>723.0094601857425</v>
       </c>
       <c r="C12" t="n">
-        <v>6.625446617235745e-31</v>
+        <v>2.105943094049187e-41</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03510710306044521</v>
+        <v>0.02250131499518795</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6029444606778239</v>
+        <v>0.7249941930752875</v>
       </c>
     </row>
     <row r="14">
@@ -879,62 +866,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.202958900619902e-05</v>
+        <v>-5.786765869157708e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3855143271327429</v>
+        <v>0.4158426531174625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.499416803118192</v>
+        <v>1.511574079562116</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5580923424695541</v>
+        <v>0.7805617519719781</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0160108405138093</v>
+        <v>1770.471464994441</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9978781325516972</v>
+        <v>0.2511198524224152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1828.148362183483</v>
+        <v>-979.6609618988496</v>
       </c>
       <c r="C17" t="n">
-        <v>0.237001413811267</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-875.5298089787048</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2581922293694729</v>
+        <v>0.1936167945914279</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5706.486228258791</v>
+        <v>5908.992036550655</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005616621998611897</v>
+        <v>0.001959125572630008</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3278.878835256267</v>
+        <v>-3288.643793787414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09722678045477723</v>
+        <v>0.09613835332563525</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2638.838542306969</v>
+        <v>-2638.996434534023</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1191807302698848</v>
+        <v>0.1191176452565269</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1734.357538610883</v>
+        <v>-1734.723714769857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.305348525609168</v>
+        <v>0.3051925950640303</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-103.5856942330903</v>
+        <v>-100.9726340259346</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7562676288419532</v>
+        <v>0.7620985173993701</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.04533828102831</v>
+        <v>68.1983988277486</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7300957011739333</v>
+        <v>0.7255422741351188</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.61550973561476</v>
+        <v>87.18117133392039</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2208282339127203</v>
+        <v>0.217560799438185</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-915.3048219982823</v>
+        <v>-915.0134281730841</v>
       </c>
       <c r="C9" t="n">
-        <v>5.088089330640015e-07</v>
+        <v>5.11312298421097e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-8.671989217271872</v>
+        <v>-8.661370330956705</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2811483184197461</v>
+        <v>0.2816781882781871</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.0263829395473</v>
+        <v>396.9400797283049</v>
       </c>
       <c r="C11" t="n">
-        <v>2.554968314964311e-06</v>
+        <v>2.368529566031741e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>678.9671383815382</v>
+        <v>671.2119623392261</v>
       </c>
       <c r="C12" t="n">
-        <v>1.643314822885785e-28</v>
+        <v>5.281124719330211e-36</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05370095910511798</v>
+        <v>-0.04808204492293005</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4286846326193751</v>
+        <v>0.4547964222931544</v>
       </c>
     </row>
     <row r="14">
@@ -1136,62 +1110,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.209108900583581e-05</v>
+        <v>-4.387428108098899e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5533102150734139</v>
+        <v>0.5346801680224201</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.467119643074264</v>
+        <v>2.343609184478881</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7943586627389218</v>
+        <v>0.671542624991838</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.030407150627478</v>
+        <v>2223.476289781445</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6206834027718711</v>
+        <v>0.1510684843828766</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2199.526481706182</v>
+        <v>246.4055317277542</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1562912062932377</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>202.0167242816183</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7931356844018519</v>
+        <v>0.7429019359287967</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5537.794964110083</v>
+        <v>5797.27423048458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004317514625105332</v>
+        <v>0.001148418142905912</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2169.476296561974</v>
+        <v>-2181.781788439918</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2365195888466575</v>
+        <v>0.2337309359682329</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2114.090517445125</v>
+        <v>-2115.455237533828</v>
       </c>
       <c r="C4" t="n">
-        <v>0.17601259976217</v>
+        <v>0.175686866216432</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1354.576747614815</v>
+        <v>-1356.366142776374</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3853947108986889</v>
+        <v>0.3847145595341015</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30.19603046585951</v>
+        <v>-30.15479924422442</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9289355424131569</v>
+        <v>0.9290248568968749</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.14638171016701</v>
+        <v>-22.35140968150931</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9083619078914418</v>
+        <v>0.9075071716213268</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.74673280523223</v>
+        <v>87.46887062813082</v>
       </c>
       <c r="C8" t="n">
-        <v>0.223153900785588</v>
+        <v>0.2190707566470414</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1112.444431597815</v>
+        <v>-1111.445369588162</v>
       </c>
       <c r="C9" t="n">
-        <v>9.665829988779098e-10</v>
+        <v>9.912598373484788e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.94332720958481</v>
+        <v>-15.96535672431167</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04498740085952133</v>
+        <v>0.04466246769955114</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>434.9092487972302</v>
+        <v>435.7755176476802</v>
       </c>
       <c r="C11" t="n">
-        <v>1.93037302140367e-07</v>
+        <v>1.796517084422111e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>721.0007366629953</v>
+        <v>711.399927248495</v>
       </c>
       <c r="C12" t="n">
-        <v>2.003162395313307e-32</v>
+        <v>6.415822386149023e-40</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0138374737545926</v>
+        <v>0.02121295067138345</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8370286396637421</v>
+        <v>0.7389328057626454</v>
       </c>
     </row>
     <row r="14">
@@ -1393,62 +1354,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.197378336417283e-05</v>
+        <v>-8.427425069224494e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2474601905400522</v>
+        <v>0.2322425838131012</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.147103143147047</v>
+        <v>1.54801648464909</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7345512505679638</v>
+        <v>0.7774185585209267</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.41975366103957</v>
+        <v>2171.756766266839</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6891931282602906</v>
+        <v>0.1577382461741893</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2140.707450655334</v>
+        <v>-362.5764665792867</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1645541353463699</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-420.4551428089361</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5828083658268186</v>
+        <v>0.6269934716717396</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4726.978875652519</v>
+        <v>5212.458982927632</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01592547570061853</v>
+        <v>0.003680925281432835</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2367.422627187684</v>
+        <v>-2390.259380227926</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2046904467574567</v>
+        <v>0.2002351746115362</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2385.49990108627</v>
+        <v>-2389.422315830088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1278485004658879</v>
+        <v>0.127191809755407</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1599.189948142603</v>
+        <v>-1603.217803837739</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3068707576152601</v>
+        <v>0.3056141058284481</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.699529449472436</v>
+        <v>0.7317202548625517</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9959032133378763</v>
+        <v>0.9982358947434622</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.4945257814733</v>
+        <v>248.126488852283</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2016636568988707</v>
+        <v>0.2004752860337133</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.34634485701969</v>
+        <v>32.41817629789784</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6624150960057869</v>
+        <v>0.6515026293665978</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-999.3806698539755</v>
+        <v>-999.2946749999049</v>
       </c>
       <c r="C9" t="n">
-        <v>3.944143814656254e-08</v>
+        <v>3.945516590532361e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9.177247408538461</v>
+        <v>-9.23472041732845</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2478577236640418</v>
+        <v>0.2448413057032271</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>380.2968455368489</v>
+        <v>382.8667084982916</v>
       </c>
       <c r="C11" t="n">
-        <v>7.484823443794182e-06</v>
+        <v>6.318951567832808e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>751.340069096661</v>
+        <v>733.6916664282116</v>
       </c>
       <c r="C12" t="n">
-        <v>5.693881170250018e-35</v>
+        <v>1.518600521125821e-42</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04674288879623088</v>
+        <v>0.06011412806809237</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4890465087872192</v>
+        <v>0.3472965732290391</v>
       </c>
     </row>
     <row r="14">
@@ -1650,62 +1598,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.275472945859449e-05</v>
+        <v>-9.701547459028552e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1915856200446248</v>
+        <v>0.169897525029237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.762543850081371</v>
+        <v>2.34077632149672</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5388731647905647</v>
+        <v>0.6762020141018519</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.053798352089634</v>
+        <v>3500.980737758357</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5172641389117758</v>
+        <v>0.02494823035886991</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3445.401837776672</v>
+        <v>-346.3412629187958</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02761072118384689</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-451.3282220981177</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5535964727267607</v>
+        <v>0.6408587935763295</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4404.049967544601</v>
+        <v>4429.450883394386</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03766951914361682</v>
+        <v>0.0247849952890115</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-238.3092569436213</v>
+        <v>-239.0510595271484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9075474758344928</v>
+        <v>0.9072444424058393</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-749.2656383224066</v>
+        <v>-749.0501863306047</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6711766265978159</v>
+        <v>0.671226696008501</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.760095490707329</v>
+        <v>-3.617881648864739</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9982983001867445</v>
+        <v>0.9983624618807639</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-177.4396144128092</v>
+        <v>-177.1523988883403</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5922295076232329</v>
+        <v>0.5926566583877944</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8422390912664</v>
+        <v>201.9289681450765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.297763106829332</v>
+        <v>0.2974535133482915</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.37740312320842</v>
+        <v>55.48916027191419</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4384746923782921</v>
+        <v>0.436979251356153</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-874.297626616766</v>
+        <v>-874.2048129568001</v>
       </c>
       <c r="C9" t="n">
-        <v>1.456906744038653e-06</v>
+        <v>1.452212797828736e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.15619946851808</v>
+        <v>-22.15874534164455</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005808603892420155</v>
+        <v>0.005794886806379564</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>319.5941632779933</v>
+        <v>319.7246828534577</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001563634394292084</v>
+        <v>0.0001525403572502904</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>727.6716256845742</v>
+        <v>726.7225306927944</v>
       </c>
       <c r="C12" t="n">
-        <v>8.766912042045488e-33</v>
+        <v>1.284239327937898e-41</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01195098423351743</v>
+        <v>0.01266548151666031</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8613085063060875</v>
+        <v>0.8451876071310631</v>
       </c>
     </row>
     <row r="14">
@@ -1907,62 +1842,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.739617486636085e-05</v>
+        <v>-8.762587688220647e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2210915982614407</v>
+        <v>0.2176176103917741</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3076636764464751</v>
+        <v>3.669391357271465</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9737349121787524</v>
+        <v>0.5174698117761141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.760442809710546</v>
+        <v>2954.327729714225</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5511051760848469</v>
+        <v>0.05898382230995544</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2951.498914691216</v>
+        <v>-189.3982757734723</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05964009502542041</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-194.9842438072092</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7983513919761633</v>
+        <v>0.7990619102207491</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5194.896062342292</v>
+        <v>5474.663379857759</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008269660503230067</v>
+        <v>0.00266768253977268</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1697.282700218269</v>
+        <v>-1706.784653984878</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3711672199126024</v>
+        <v>0.3684046376958988</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1624.871978966247</v>
+        <v>-1622.639502128124</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3127170235034563</v>
+        <v>0.3133296220506264</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-916.0191497937751</v>
+        <v>-914.8533812439775</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5688463511810353</v>
+        <v>0.5692981818322436</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.97671423155759</v>
+        <v>24.9945412949038</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9475156636824053</v>
+        <v>0.9402980996389738</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>196.7803891827608</v>
+        <v>197.5931189613224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.30389800411528</v>
+        <v>0.3018256374878128</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.813537994344</v>
+        <v>55.67935914252978</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4325901866303107</v>
+        <v>0.4250609044294011</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1159.849383183364</v>
+        <v>-1158.632749329026</v>
       </c>
       <c r="C9" t="n">
-        <v>1.336588887917865e-10</v>
+        <v>1.381501190596913e-10</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.82334845967333</v>
+        <v>-16.83966728680551</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03309700952653604</v>
+        <v>0.03290668923572638</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>428.0425514943183</v>
+        <v>429.5357343062138</v>
       </c>
       <c r="C11" t="n">
-        <v>2.612030950905475e-07</v>
+        <v>2.294331671928253e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>699.7249558921767</v>
+        <v>689.0619363026965</v>
       </c>
       <c r="C12" t="n">
-        <v>1.67503430624113e-31</v>
+        <v>7.577647221492584e-39</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05185373323624139</v>
+        <v>0.06010585327043012</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4414210457712373</v>
+        <v>0.3455641999400436</v>
       </c>
     </row>
     <row r="14">
@@ -2164,62 +2086,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001144379094334245</v>
+        <v>-0.000117061879042591</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1041527193691457</v>
+        <v>0.09480251845392036</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.482427917980859</v>
+        <v>0.5492734432422974</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7052611572871057</v>
+        <v>0.9204593074949339</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.5144712796477</v>
+        <v>2378.265652427016</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8027930233023218</v>
+        <v>0.1150276114316734</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2338.87410356178</v>
+        <v>-799.0848734190649</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1220897613414352</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-864.1907215800857</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2567051107713871</v>
+        <v>0.2816050698739257</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5152.868938060117</v>
+        <v>5562.344266353029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009216657805109994</v>
+        <v>0.002154574957207427</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1811.845345749812</v>
+        <v>-1829.709049791893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.341156806421311</v>
+        <v>0.3362963855394334</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2140.116620114298</v>
+        <v>-2142.486310753922</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1761123709673268</v>
+        <v>0.1755947613343427</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1363.66476316488</v>
+        <v>-1367.762476214806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3880893491422264</v>
+        <v>0.3866177646379734</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-221.4617107386584</v>
+        <v>-219.2163457606678</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5129174414973234</v>
+        <v>0.5171283963261508</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.3701249192055</v>
+        <v>149.9519593997325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4451728662638562</v>
+        <v>0.4433546596487047</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.83415582913173</v>
+        <v>85.9068994691399</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2394215318750809</v>
+        <v>0.2332978784193347</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-911.2135384202263</v>
+        <v>-910.7756595373756</v>
       </c>
       <c r="C9" t="n">
-        <v>6.833597723436825e-07</v>
+        <v>6.900558480698796e-07</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-14.73443827476084</v>
+        <v>-14.80696037776008</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06743846090429573</v>
+        <v>0.06603618488195434</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>411.9683141423417</v>
+        <v>413.9456040606767</v>
       </c>
       <c r="C11" t="n">
-        <v>1.203005943687446e-06</v>
+        <v>1.040698072547426e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>678.8654294678138</v>
+        <v>664.0220908852957</v>
       </c>
       <c r="C12" t="n">
-        <v>1.861869726806427e-28</v>
+        <v>1.537468252493236e-34</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.001406313316238677</v>
+        <v>0.00995512597510215</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9836915866561582</v>
+        <v>0.8786063650700426</v>
       </c>
     </row>
     <row r="14">
@@ -2421,62 +2330,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.66274914691176e-05</v>
+        <v>-7.016248646231734e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.355688605668279</v>
+        <v>0.3285168518660321</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.887456768157297</v>
+        <v>8.652120175311733</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6056651592425977</v>
+        <v>0.1238327819391764</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.08284605780757</v>
+        <v>701.3321247577978</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1077492889656931</v>
+        <v>0.6524711337278892</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>648.2460795423638</v>
+        <v>-596.2924669942793</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6779185104729655</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-685.1263162753097</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3798150985925667</v>
+        <v>0.4331917016457778</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5357.757075747021</v>
+        <v>5587.633249351649</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02561266675114658</v>
+        <v>0.01366254525481708</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1907.288957444791</v>
+        <v>-1922.636608224853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4219236751819271</v>
+        <v>0.4180326586423249</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2182.750121734329</v>
+        <v>-2190.238653577998</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2969459033484491</v>
+        <v>0.2952026005643882</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1542.575111715566</v>
+        <v>-1551.14195023036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4608039767912955</v>
+        <v>0.4582242938687636</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>264.5596093746038</v>
+        <v>266.1363171783333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4381658504241835</v>
+        <v>0.435333046496532</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>205.1674542038691</v>
+        <v>206.4002316169451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2953001036482774</v>
+        <v>0.2922425398531028</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.34381443821329</v>
+        <v>75.07614961427561</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3036188949893581</v>
+        <v>0.2985338498159218</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-891.9107098585694</v>
+        <v>-891.3601668270242</v>
       </c>
       <c r="C9" t="n">
-        <v>1.247075234190836e-06</v>
+        <v>1.260964577295537e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.48977637385575</v>
+        <v>-17.48807303684752</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03181761397458747</v>
+        <v>0.03181556841011607</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>435.2009922245764</v>
+        <v>436.0340043926104</v>
       </c>
       <c r="C11" t="n">
-        <v>2.891156448984052e-07</v>
+        <v>2.693785068199984e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>705.0155141537529</v>
+        <v>696.7410316717753</v>
       </c>
       <c r="C12" t="n">
-        <v>1.420239552275827e-30</v>
+        <v>1.083837794487526e-37</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02473632569793074</v>
+        <v>0.03128718682089095</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7204540221358834</v>
+        <v>0.6320082573270895</v>
       </c>
     </row>
     <row r="14">
@@ -2678,62 +2574,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.435547712969681e-05</v>
+        <v>-7.642867467897333e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3042215154188878</v>
+        <v>0.2885261196833988</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.72605076141175</v>
+        <v>3.417963288721559</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7715740367698054</v>
+        <v>0.5474205714680054</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.196710559749082</v>
+        <v>2120.396382537455</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5041816243204735</v>
+        <v>0.1746475365889328</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2091.643663034114</v>
+        <v>-344.0937414937272</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1814872734584262</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-394.7721284332108</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.6145425130271855</v>
+        <v>0.6524888475307338</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Nantes.xlsx
+++ b/outputs/ML_Results/dist_commute/Nantes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ55598317" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ55916082" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ56334604" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ56750445" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ57119145" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ57513686" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ57909917" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ58284298" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ58675158" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ25134329" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ25421304" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ25719509" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ26012139" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ26353152" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ26663302" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ27070715" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ27374800" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ27669868" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5859.947181042666</v>
+        <v>5859.947186596261</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001098379564489524</v>
+        <v>0.001098379570851439</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2813.763375726419</v>
+        <v>-2813.763376191856</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1339988789149308</v>
+        <v>0.133998878914966</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2269.493559246513</v>
+        <v>-2269.493559233476</v>
       </c>
       <c r="C4" t="n">
-        <v>0.149474176184961</v>
+        <v>0.1494741761854297</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1609.860997341095</v>
+        <v>-1609.860997414168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3060022887729799</v>
+        <v>0.3060022887635333</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.878638015524515</v>
+        <v>-7.878638083571587</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9811309796197887</v>
+        <v>0.9811309794568069</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>242.3292780207179</v>
+        <v>242.3292779208868</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2139735051417443</v>
+        <v>0.2139735053230565</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.5874572349078</v>
+        <v>158.5874574342872</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02800462417510717</v>
+        <v>0.0280046239918418</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1060.66928619776</v>
+        <v>-1060.669286213451</v>
       </c>
       <c r="C9" t="n">
-        <v>6.873685054947612e-09</v>
+        <v>6.87368505102583e-09</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-12.04432291088825</v>
+        <v>-12.04432291129521</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1350462226702838</v>
+        <v>0.1350462226570173</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.3166651292909</v>
+        <v>357.3166652092058</v>
       </c>
       <c r="C11" t="n">
-        <v>2.181144041715638e-05</v>
+        <v>2.181144032721582e-05</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>674.835847517862</v>
+        <v>674.8358471951676</v>
       </c>
       <c r="C12" t="n">
-        <v>2.054311705311815e-36</v>
+        <v>2.054311831269529e-36</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.003206678224318127</v>
+        <v>-0.3206678516644419</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9603383185365451</v>
+        <v>0.9603383149217939</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.019687677347948e-05</v>
+        <v>-50.19687780131441</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4801806293517464</v>
+        <v>0.4801806205136564</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.796824703396026</v>
+        <v>2.796824703395424</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6147979246576095</v>
+        <v>0.6147979246576851</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1775.326466168044</v>
+        <v>17.75326466167575</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2528647050698066</v>
+        <v>0.2528647050699313</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-536.3210911293368</v>
+        <v>-5.363210911294104</v>
       </c>
       <c r="C17" t="n">
-        <v>0.476563961809419</v>
+        <v>0.4765639618093559</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8243.068705920046</v>
+        <v>8243.068710916961</v>
       </c>
       <c r="C2" t="n">
-        <v>1.598276995549249e-05</v>
+        <v>1.598277005425467e-05</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4136.371461764923</v>
+        <v>-4136.371461306018</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03430335120129523</v>
+        <v>0.03430335120129143</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-4139.396689430076</v>
+        <v>-4139.396689054872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01490502766673579</v>
+        <v>0.01490502766678155</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3416.225612759912</v>
+        <v>-3416.225612199157</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0442606364540062</v>
+        <v>0.04426063646018502</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-329.637244281516</v>
+        <v>-329.6372444626243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3306288033539722</v>
+        <v>0.3306288030863678</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>263.8674282220933</v>
+        <v>263.8674280335053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1757124307722592</v>
+        <v>0.1757124310715511</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.14902024626719</v>
+        <v>35.14902014668876</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6225648419583255</v>
+        <v>0.6225648429303727</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1052.038312270067</v>
+        <v>-1052.03831214925</v>
       </c>
       <c r="C9" t="n">
-        <v>8.832507584432025e-09</v>
+        <v>8.832507621272173e-09</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.54135164715232</v>
+        <v>-18.5413516589483</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02009058306354017</v>
+        <v>0.02009058298237611</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>351.5051820686689</v>
+        <v>351.5051818125926</v>
       </c>
       <c r="C11" t="n">
-        <v>4.312773591348203e-05</v>
+        <v>4.312773645735624e-05</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>723.0094601857425</v>
+        <v>723.0094600134652</v>
       </c>
       <c r="C12" t="n">
-        <v>2.105943094049187e-41</v>
+        <v>2.105943175507154e-41</v>
       </c>
     </row>
     <row r="13">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02250131499518795</v>
+        <v>2.25013146756008</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7249941930752875</v>
+        <v>0.7249941968145824</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.786765869157708e-05</v>
+        <v>-57.86765989361792</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4158426531174625</v>
+        <v>0.4158426432340092</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.511574079562116</v>
+        <v>1.511574079561081</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7805617519719781</v>
+        <v>0.7805617519721266</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1770.471464994441</v>
+        <v>17.70471464993989</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2511198524224152</v>
+        <v>0.2511198524225356</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-979.6609618988496</v>
+        <v>-9.796609618989208</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1936167945914279</v>
+        <v>0.1936167945913946</v>
       </c>
     </row>
   </sheetData>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5908.992036550655</v>
+        <v>5908.992034666944</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001959125572630008</v>
+        <v>0.001959125570314537</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3288.643793787414</v>
+        <v>-3288.643794104682</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09613835332563525</v>
+        <v>0.09613835332566126</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2638.996434534023</v>
+        <v>-2638.996434855055</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1191176452565269</v>
+        <v>0.1191176452474532</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1734.723714769857</v>
+        <v>-1734.723714799707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3051925950640303</v>
+        <v>0.3051925950600874</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-100.9726340259346</v>
+        <v>-100.9726339585949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7620985173993701</v>
+        <v>0.762098517553536</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.1983988277486</v>
+        <v>68.19839886156907</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7255422741351188</v>
+        <v>0.7255422740054599</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.18117133392039</v>
+        <v>87.18117142231714</v>
       </c>
       <c r="C8" t="n">
-        <v>0.217560799438185</v>
+        <v>0.217560798989236</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-915.0134281730841</v>
+        <v>-915.0134282108613</v>
       </c>
       <c r="C9" t="n">
-        <v>5.11312298421097e-07</v>
+        <v>5.113122977971892e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-8.661370330956705</v>
+        <v>-8.661370331487142</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2816781882781871</v>
+        <v>0.2816781882483822</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.9400797283049</v>
+        <v>396.9400799187447</v>
       </c>
       <c r="C11" t="n">
-        <v>2.368529566031741e-06</v>
+        <v>2.368529540798502e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>671.2119623392261</v>
+        <v>671.2119622446816</v>
       </c>
       <c r="C12" t="n">
-        <v>5.281124719330211e-36</v>
+        <v>5.28112482094777e-36</v>
       </c>
     </row>
     <row r="13">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04808204492293005</v>
+        <v>-4.808204480027778</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4547964222931544</v>
+        <v>0.4547964234472263</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.387428108098899e-05</v>
+        <v>-43.87428149286802</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5346801680224201</v>
+        <v>0.5346801643176297</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.343609184478881</v>
+        <v>2.343609184478335</v>
       </c>
       <c r="C15" t="n">
-        <v>0.671542624991838</v>
+        <v>0.67154262499191</v>
       </c>
     </row>
     <row r="16">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2223.476289781445</v>
+        <v>22.23476289781146</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1510684843828766</v>
+        <v>0.1510684843829311</v>
       </c>
     </row>
     <row r="17">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>246.4055317277542</v>
+        <v>2.46405531727694</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7429019359287967</v>
+        <v>0.7429019359288556</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5797.27423048458</v>
+        <v>5797.274229474125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001148418142905912</v>
+        <v>0.001148418140722721</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2181.781788439918</v>
+        <v>-2181.781788011968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2337309359682329</v>
+        <v>0.2337309359684376</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2115.455237533828</v>
+        <v>-2115.455237148172</v>
       </c>
       <c r="C4" t="n">
-        <v>0.175686866216432</v>
+        <v>0.1756868662193546</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1356.366142776374</v>
+        <v>-1356.36614250977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3847145595341015</v>
+        <v>0.3847145595697208</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30.15479924422442</v>
+        <v>-30.1547991763839</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9290248568968749</v>
+        <v>0.9290248570562474</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.35140968150931</v>
+        <v>-22.35140964272016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9075071716213268</v>
+        <v>0.9075071717816929</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.46887062813082</v>
+        <v>87.46887053538234</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2190707566470414</v>
+        <v>0.2190707571077377</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1111.445369588162</v>
+        <v>-1111.445369565734</v>
       </c>
       <c r="C9" t="n">
-        <v>9.912598373484788e-10</v>
+        <v>9.912598382572198e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.96535672431167</v>
+        <v>-15.96535672593261</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04466246769955114</v>
+        <v>0.04466246767749538</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>435.7755176476802</v>
+        <v>435.7755176672835</v>
       </c>
       <c r="C11" t="n">
-        <v>1.796517084422111e-07</v>
+        <v>1.796517082243123e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>711.399927248495</v>
+        <v>711.3999273352557</v>
       </c>
       <c r="C12" t="n">
-        <v>6.415822386149023e-40</v>
+        <v>6.415822281871728e-40</v>
       </c>
     </row>
     <row r="13">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02121295067138345</v>
+        <v>2.121295083613615</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7389328057626454</v>
+        <v>0.7389328038154268</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.427425069224494e-05</v>
+        <v>-84.27425124802041</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2322425838131012</v>
+        <v>0.2322425811555577</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.54801648464909</v>
+        <v>1.548016484647829</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7774185585209267</v>
+        <v>0.7774185585211042</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2171.756766266839</v>
+        <v>21.71756766266603</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1577382461741893</v>
+        <v>0.1577382461742349</v>
       </c>
     </row>
     <row r="17">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-362.5764665792867</v>
+        <v>-3.625764665793517</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6269934716717396</v>
+        <v>0.6269934716716781</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5212.458982927632</v>
+        <v>5212.458985104253</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003680925281432835</v>
+        <v>0.003680925289933976</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2390.259380227926</v>
+        <v>-2390.259379342671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2002351746115362</v>
+        <v>0.2002351746116631</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2389.422315830088</v>
+        <v>-2389.42231516793</v>
       </c>
       <c r="C4" t="n">
-        <v>0.127191809755407</v>
+        <v>0.1271918097562102</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1603.217803837739</v>
+        <v>-1603.217802994653</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3056141058284481</v>
+        <v>0.3056141059130577</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7317202548625517</v>
+        <v>0.7317202302787678</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9982358947434622</v>
+        <v>0.99823589480273</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>248.126488852283</v>
+        <v>248.1264886977828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2004752860337133</v>
+        <v>0.2004752863034195</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.41817629789784</v>
+        <v>32.41817624984891</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6515026293665978</v>
+        <v>0.6515026298400426</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-999.2946749999049</v>
+        <v>-999.2946750500694</v>
       </c>
       <c r="C9" t="n">
-        <v>3.945516590532361e-08</v>
+        <v>3.945516583555389e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9.23472041732845</v>
+        <v>-9.234720421984862</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2448413057032271</v>
+        <v>0.2448413054634121</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.8667084982916</v>
+        <v>382.8667082229389</v>
       </c>
       <c r="C11" t="n">
-        <v>6.318951567832808e-06</v>
+        <v>6.318951660721512e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>733.6916664282116</v>
+        <v>733.6916664586217</v>
       </c>
       <c r="C12" t="n">
-        <v>1.518600521125821e-42</v>
+        <v>1.518600511232469e-42</v>
       </c>
     </row>
     <row r="13">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06011412806809237</v>
+        <v>6.011412818955229</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3472965732290391</v>
+        <v>0.3472965722615052</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.701547459028552e-05</v>
+        <v>-97.01547431154572</v>
       </c>
       <c r="C14" t="n">
-        <v>0.169897525029237</v>
+        <v>0.1698975261852133</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.34077632149672</v>
+        <v>2.340776321496683</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6762020141018519</v>
+        <v>0.6762020141018554</v>
       </c>
     </row>
     <row r="16">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3500.980737758357</v>
+        <v>35.00980737758077</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02494823035886991</v>
+        <v>0.02494823035888131</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-346.3412629187958</v>
+        <v>-3.463412629188435</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6408587935763295</v>
+        <v>0.6408587935762826</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4429.450883394386</v>
+        <v>4429.450883323634</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0247849952890115</v>
+        <v>0.02478499525835292</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-239.0510595271484</v>
+        <v>-239.0510595679664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9072444424058393</v>
+        <v>0.9072444424059931</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-749.0501863306047</v>
+        <v>-749.0501863898227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.671226696008501</v>
+        <v>0.6712266960603679</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.617881648864739</v>
+        <v>-3.617881673193608</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9983624618807639</v>
+        <v>0.9983624618699187</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-177.1523988883403</v>
+        <v>-177.1523988869527</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5926566583877944</v>
+        <v>0.5926566583907766</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.9289681450765</v>
+        <v>201.9289681500111</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2974535133482915</v>
+        <v>0.297453513339027</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.48916027191419</v>
+        <v>55.48916026754578</v>
       </c>
       <c r="C8" t="n">
-        <v>0.436979251356153</v>
+        <v>0.4369792513768556</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-874.2048129568001</v>
+        <v>-874.2048129512473</v>
       </c>
       <c r="C9" t="n">
-        <v>1.452212797828736e-06</v>
+        <v>1.452212798282886e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.15874534164455</v>
+        <v>-22.15874534091018</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005794886806379564</v>
+        <v>0.005794886807999138</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>319.7246828534577</v>
+        <v>319.724682850582</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001525403572502904</v>
+        <v>0.0001525403572788371</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>726.7225306927944</v>
+        <v>726.7225306906503</v>
       </c>
       <c r="C12" t="n">
-        <v>1.284239327937898e-41</v>
+        <v>1.284239326476601e-41</v>
       </c>
     </row>
     <row r="13">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01266548151666031</v>
+        <v>1.266548148857229</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8451876071310631</v>
+        <v>0.8451876074611056</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.762587688220647e-05</v>
+        <v>-87.62587673371101</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2176176103917741</v>
+        <v>0.217617611320654</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.669391357271465</v>
+        <v>3.669391357270811</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5174698117761141</v>
+        <v>0.5174698117761903</v>
       </c>
     </row>
     <row r="16">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2954.327729714225</v>
+        <v>29.54327729713901</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05898382230995544</v>
+        <v>0.05898382230998252</v>
       </c>
     </row>
     <row r="17">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-189.3982757734723</v>
+        <v>-1.893982757735627</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7990619102207491</v>
+        <v>0.7990619102206546</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5474.663379857759</v>
+        <v>5474.66337967762</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00266768253977268</v>
+        <v>0.002667682538551914</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1706.784653984878</v>
+        <v>-1706.784653526125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3684046376958988</v>
+        <v>0.3684046376957134</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1622.639502128124</v>
+        <v>-1622.639501485638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3133296220506264</v>
+        <v>0.3133296220611882</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-914.8533812439775</v>
+        <v>-914.8533808562767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5692981818322436</v>
+        <v>0.5692981819085521</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.9945412949038</v>
+        <v>24.99454140050028</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9402980996389738</v>
+        <v>0.9402980993873864</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>197.5931189613224</v>
+        <v>197.5931190868039</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3018256374878128</v>
+        <v>0.3018256371910223</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.67935914252978</v>
+        <v>55.67935924385626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4250609044294011</v>
+        <v>0.4250609036295507</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1158.632749329026</v>
+        <v>-1158.632749375386</v>
       </c>
       <c r="C9" t="n">
-        <v>1.381501190596913e-10</v>
+        <v>1.381501187672095e-10</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.83966728680551</v>
+        <v>-16.83966728740419</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03290668923572638</v>
+        <v>0.03290668922939548</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>429.5357343062138</v>
+        <v>429.5357343119881</v>
       </c>
       <c r="C11" t="n">
-        <v>2.294331671928253e-07</v>
+        <v>2.294331671104947e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>689.0619363026965</v>
+        <v>689.0619363011817</v>
       </c>
       <c r="C12" t="n">
-        <v>7.577647221492584e-39</v>
+        <v>7.577647223676681e-39</v>
       </c>
     </row>
     <row r="13">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06010585327043012</v>
+        <v>6.010585333895365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3455641999400436</v>
+        <v>0.34556419939087</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.000117061879042591</v>
+        <v>-117.0618788484924</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09480251845392036</v>
+        <v>0.09480251889315609</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5492734432422974</v>
+        <v>0.5492734432420319</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9204593074949339</v>
+        <v>0.920459307494972</v>
       </c>
     </row>
     <row r="16">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2378.265652427016</v>
+        <v>23.78265652426729</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1150276114316734</v>
+        <v>0.1150276114317173</v>
       </c>
     </row>
     <row r="17">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-799.0848734190649</v>
+        <v>-7.990848734191787</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2816050698739257</v>
+        <v>0.2816050698738559</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5562.344266353029</v>
+        <v>5562.344265331423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002154574957207427</v>
+        <v>0.002154574952273763</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1829.709049791893</v>
+        <v>-1829.70904947779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3362963855394334</v>
+        <v>0.3362963855398416</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2142.486310753922</v>
+        <v>-2142.486310613059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1755947613343427</v>
+        <v>0.1755947613297136</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1367.762476214806</v>
+        <v>-1367.762475906421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3866177646379734</v>
+        <v>0.3866177646653997</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219.2163457606678</v>
+        <v>-219.2163457547535</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5171283963261508</v>
+        <v>0.5171283963375322</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.9519593997325</v>
+        <v>149.951959362529</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4433546596487047</v>
+        <v>0.4433546597590686</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.9068994691399</v>
+        <v>85.90689936915022</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2332978784193347</v>
+        <v>0.2332978789248509</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-910.7756595373756</v>
+        <v>-910.7756595578683</v>
       </c>
       <c r="C9" t="n">
-        <v>6.900558480698796e-07</v>
+        <v>6.90055847592005e-07</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-14.80696037776008</v>
+        <v>-14.80696037433077</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06603618488195434</v>
+        <v>0.06603618494716094</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>413.9456040606767</v>
+        <v>413.9456040011198</v>
       </c>
       <c r="C11" t="n">
-        <v>1.040698072547426e-06</v>
+        <v>1.04069807619407e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>664.0220908852957</v>
+        <v>664.0220909442312</v>
       </c>
       <c r="C12" t="n">
-        <v>1.537468252493236e-34</v>
+        <v>1.537468238674415e-34</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00995512597510215</v>
+        <v>0.9955126053764758</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8786063650700426</v>
+        <v>0.8786063641204616</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.016248646231734e-05</v>
+        <v>-70.16248613139476</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3285168518660321</v>
+        <v>0.3285168538512495</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.652120175311733</v>
+        <v>8.652120175311499</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1238327819391764</v>
+        <v>0.1238327819391867</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>701.3321247577978</v>
+        <v>7.013321247575202</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6524711337278892</v>
+        <v>0.6524711337280176</v>
       </c>
     </row>
     <row r="17">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-596.2924669942793</v>
+        <v>-5.962924669943853</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4331917016457778</v>
+        <v>0.4331917016456953</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5587.633249351649</v>
+        <v>5587.63324792327</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01366254525481708</v>
+        <v>0.01366254522098638</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1922.636608224853</v>
+        <v>-1922.636607803971</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4180326586423249</v>
+        <v>0.4180326586424463</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2190.238653577998</v>
+        <v>-2190.238653330285</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2952026005643882</v>
+        <v>0.2952026005569585</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1551.14195023036</v>
+        <v>-1551.141949855637</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4582242938687636</v>
+        <v>0.4582242938899019</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>266.1363171783333</v>
+        <v>266.1363172441461</v>
       </c>
       <c r="C6" t="n">
-        <v>0.435333046496532</v>
+        <v>0.4353330463842934</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.4002316169451</v>
+        <v>206.4002315589075</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2922425398531028</v>
+        <v>0.2922425399817917</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.07614961427561</v>
+        <v>75.07614958527603</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2985338498159218</v>
+        <v>0.2985338499995785</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-891.3601668270242</v>
+        <v>-891.3601668543663</v>
       </c>
       <c r="C9" t="n">
-        <v>1.260964577295537e-06</v>
+        <v>1.260964576201925e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.48807303684752</v>
+        <v>-17.48807303910248</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03181556841011607</v>
+        <v>0.03181556838835567</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>436.0340043926104</v>
+        <v>436.0340042716134</v>
       </c>
       <c r="C11" t="n">
-        <v>2.693785068199984e-07</v>
+        <v>2.693785085640239e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>696.7410316717753</v>
+        <v>696.7410318377381</v>
       </c>
       <c r="C12" t="n">
-        <v>1.083837794487526e-37</v>
+        <v>1.083837767004329e-37</v>
       </c>
     </row>
     <row r="13">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03128718682089095</v>
+        <v>3.128718703865948</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6320082573270895</v>
+        <v>0.6320082549735715</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.642867467897333e-05</v>
+        <v>-76.42867520264795</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2885261196833988</v>
+        <v>0.2885261165798952</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.417963288721559</v>
+        <v>3.417963288721221</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5474205714680054</v>
+        <v>0.5474205714680441</v>
       </c>
     </row>
     <row r="16">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2120.396382537455</v>
+        <v>21.20396382537099</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1746475365889328</v>
+        <v>0.1746475365890052</v>
       </c>
     </row>
     <row r="17">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-344.0937414937272</v>
+        <v>-3.440937414937725</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6524888475307338</v>
+        <v>0.6524888475306903</v>
       </c>
     </row>
   </sheetData>
